--- a/241007_BOM_구매현황.xlsx
+++ b/241007_BOM_구매현황.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twinpapa/Library/Mobile Documents/com~apple~CloudDocs/JDS_Data/NEW_Pro/홍콩_AS/이슈사항/제작도/240528_최종확인/하네스 및 조립방법_BOM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twinpapa/Databases/Git_Hub/GIC_HONGKONG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922E1438-9810-244B-8696-4629BB04D93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F8AB3C-EADB-7E47-BF0E-4258C0C49B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-49400" yWindow="880" windowWidth="41120" windowHeight="25700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2532,7 +2532,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="297">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3246,6 +3246,105 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3262,15 +3361,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3335,102 +3425,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3805,10 +3799,10 @@
       </c>
     </row>
     <row r="3" spans="2:13" ht="19">
-      <c r="B3" s="249">
+      <c r="B3" s="279">
         <v>1</v>
       </c>
-      <c r="C3" s="248" t="s">
+      <c r="C3" s="278" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="133"/>
@@ -3825,8 +3819,8 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="2:13" ht="19">
-      <c r="B4" s="238"/>
-      <c r="C4" s="241"/>
+      <c r="B4" s="271"/>
+      <c r="C4" s="274"/>
       <c r="D4" s="12" t="str">
         <f>MOP!D3</f>
         <v>Main Frame</v>
@@ -3857,8 +3851,8 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="2:13" ht="19">
-      <c r="B5" s="238"/>
-      <c r="C5" s="241"/>
+      <c r="B5" s="271"/>
+      <c r="C5" s="274"/>
       <c r="D5" s="12" t="str">
         <f>MOP!D4</f>
         <v>Left Cover</v>
@@ -3889,8 +3883,8 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="2:13" ht="19">
-      <c r="B6" s="238"/>
-      <c r="C6" s="241"/>
+      <c r="B6" s="271"/>
+      <c r="C6" s="274"/>
       <c r="D6" s="12" t="str">
         <f>MOP!D5</f>
         <v>Right Cover</v>
@@ -3921,8 +3915,8 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="2:13" ht="19">
-      <c r="B7" s="238"/>
-      <c r="C7" s="241"/>
+      <c r="B7" s="271"/>
+      <c r="C7" s="274"/>
       <c r="D7" s="12" t="str">
         <f>MOP!D6</f>
         <v>Upper Cover</v>
@@ -3953,8 +3947,8 @@
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="2:13" ht="19">
-      <c r="B8" s="238"/>
-      <c r="C8" s="241"/>
+      <c r="B8" s="271"/>
+      <c r="C8" s="274"/>
       <c r="D8" s="12" t="str">
         <f>MOP!D7</f>
         <v>Lower Cover</v>
@@ -3985,8 +3979,8 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="2:13" ht="19">
-      <c r="B9" s="238"/>
-      <c r="C9" s="241"/>
+      <c r="B9" s="271"/>
+      <c r="C9" s="274"/>
       <c r="D9" s="12" t="str">
         <f>MOP!D8</f>
         <v>Rear Cover</v>
@@ -4017,8 +4011,8 @@
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="2:13" ht="19">
-      <c r="B10" s="238"/>
-      <c r="C10" s="241"/>
+      <c r="B10" s="271"/>
+      <c r="C10" s="274"/>
       <c r="D10" s="12" t="str">
         <f>MOP!D9</f>
         <v>Push Button</v>
@@ -4049,8 +4043,8 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="2:13" ht="19">
-      <c r="B11" s="238"/>
-      <c r="C11" s="241"/>
+      <c r="B11" s="271"/>
+      <c r="C11" s="274"/>
       <c r="D11" s="12" t="str">
         <f>MOP!D10</f>
         <v>Push Button</v>
@@ -4081,8 +4075,8 @@
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="2:13" ht="19">
-      <c r="B12" s="238"/>
-      <c r="C12" s="241"/>
+      <c r="B12" s="271"/>
+      <c r="C12" s="274"/>
       <c r="D12" s="12" t="str">
         <f>MOP!D11</f>
         <v>Push Button</v>
@@ -4113,8 +4107,8 @@
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="2:13" ht="19">
-      <c r="B13" s="238"/>
-      <c r="C13" s="241"/>
+      <c r="B13" s="271"/>
+      <c r="C13" s="274"/>
       <c r="D13" s="151" t="str">
         <f>MOP!D12</f>
         <v>Microphone</v>
@@ -4151,8 +4145,8 @@
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="2:13" ht="38">
-      <c r="B14" s="238"/>
-      <c r="C14" s="241"/>
+      <c r="B14" s="271"/>
+      <c r="C14" s="274"/>
       <c r="D14" s="12" t="str">
         <f>MOP!D13</f>
         <v>LCD</v>
@@ -4186,8 +4180,8 @@
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="2:13" ht="19">
-      <c r="B15" s="238"/>
-      <c r="C15" s="241"/>
+      <c r="B15" s="271"/>
+      <c r="C15" s="274"/>
       <c r="D15" s="12" t="str">
         <f>MOP!D14</f>
         <v>LCD Mount Bracket</v>
@@ -4218,8 +4212,8 @@
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="2:13" ht="19">
-      <c r="B16" s="238"/>
-      <c r="C16" s="241"/>
+      <c r="B16" s="271"/>
+      <c r="C16" s="274"/>
       <c r="D16" s="12" t="str">
         <f>MOP!D15</f>
         <v>LCD Control Board</v>
@@ -4250,8 +4244,8 @@
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="2:13" ht="19">
-      <c r="B17" s="238"/>
-      <c r="C17" s="241"/>
+      <c r="B17" s="271"/>
+      <c r="C17" s="274"/>
       <c r="D17" s="12" t="str">
         <f>MOP!D16</f>
         <v>Main Control Board</v>
@@ -4282,8 +4276,8 @@
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="2:13" ht="19">
-      <c r="B18" s="238"/>
-      <c r="C18" s="241"/>
+      <c r="B18" s="271"/>
+      <c r="C18" s="274"/>
       <c r="D18" s="12" t="str">
         <f>MOP!D17</f>
         <v>Power Board</v>
@@ -4314,8 +4308,8 @@
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="2:13" ht="19">
-      <c r="B19" s="238"/>
-      <c r="C19" s="241"/>
+      <c r="B19" s="271"/>
+      <c r="C19" s="274"/>
       <c r="D19" s="151" t="str">
         <f>MOP!D18</f>
         <v>3P Connector Male</v>
@@ -4352,8 +4346,8 @@
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="2:13" ht="19">
-      <c r="B20" s="238"/>
-      <c r="C20" s="241"/>
+      <c r="B20" s="271"/>
+      <c r="C20" s="274"/>
       <c r="D20" s="18" t="str">
         <f>MOP!D19</f>
         <v>3P Connector Female</v>
@@ -4386,8 +4380,8 @@
       </c>
     </row>
     <row r="21" spans="2:13" ht="19">
-      <c r="B21" s="238"/>
-      <c r="C21" s="241"/>
+      <c r="B21" s="271"/>
+      <c r="C21" s="274"/>
       <c r="D21" s="151" t="str">
         <f>MOP!D20</f>
         <v>Locking</v>
@@ -4424,8 +4418,8 @@
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="2:13" ht="19">
-      <c r="B22" s="238"/>
-      <c r="C22" s="241"/>
+      <c r="B22" s="271"/>
+      <c r="C22" s="274"/>
       <c r="D22" s="151" t="str">
         <f>MOP!D21</f>
         <v>4P Connector</v>
@@ -4462,8 +4456,8 @@
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="2:13" ht="19">
-      <c r="B23" s="238"/>
-      <c r="C23" s="241"/>
+      <c r="B23" s="271"/>
+      <c r="C23" s="274"/>
       <c r="D23" s="151" t="str">
         <f>MOP!D22</f>
         <v>Pin</v>
@@ -4500,8 +4494,8 @@
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="2:13" ht="19">
-      <c r="B24" s="238"/>
-      <c r="C24" s="241"/>
+      <c r="B24" s="271"/>
+      <c r="C24" s="274"/>
       <c r="D24" s="151" t="str">
         <f>MOP!D23</f>
         <v>12P Connector</v>
@@ -4538,8 +4532,8 @@
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="2:13" ht="19">
-      <c r="B25" s="238"/>
-      <c r="C25" s="241"/>
+      <c r="B25" s="271"/>
+      <c r="C25" s="274"/>
       <c r="D25" s="151" t="str">
         <f>MOP!D24</f>
         <v>Pin</v>
@@ -4576,8 +4570,8 @@
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="2:13" ht="19">
-      <c r="B26" s="238"/>
-      <c r="C26" s="241"/>
+      <c r="B26" s="271"/>
+      <c r="C26" s="274"/>
       <c r="D26" s="151" t="str">
         <f>MOP!D25</f>
         <v>Cable Clamp</v>
@@ -4614,8 +4608,8 @@
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="2:13" ht="19">
-      <c r="B27" s="238"/>
-      <c r="C27" s="241"/>
+      <c r="B27" s="271"/>
+      <c r="C27" s="274"/>
       <c r="D27" s="12" t="str">
         <f>MOP!D26</f>
         <v>Name Plate, AL, T1</v>
@@ -4646,8 +4640,8 @@
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="2:13" ht="19">
-      <c r="B28" s="238"/>
-      <c r="C28" s="241"/>
+      <c r="B28" s="271"/>
+      <c r="C28" s="274"/>
       <c r="D28" s="18" t="str">
         <f>MOP!D27</f>
         <v>SPEAKER</v>
@@ -4680,8 +4674,8 @@
       </c>
     </row>
     <row r="29" spans="2:13" ht="18">
-      <c r="B29" s="238"/>
-      <c r="C29" s="241"/>
+      <c r="B29" s="271"/>
+      <c r="C29" s="274"/>
       <c r="D29" s="200"/>
       <c r="E29" s="200"/>
       <c r="F29" s="200"/>
@@ -4694,8 +4688,8 @@
       <c r="M29" s="203"/>
     </row>
     <row r="30" spans="2:13" ht="19">
-      <c r="B30" s="239"/>
-      <c r="C30" s="242"/>
+      <c r="B30" s="272"/>
+      <c r="C30" s="275"/>
       <c r="D30" s="149" t="s">
         <v>286</v>
       </c>
@@ -4721,10 +4715,10 @@
       <c r="M30" s="15"/>
     </row>
     <row r="31" spans="2:13" ht="19">
-      <c r="B31" s="237">
+      <c r="B31" s="270">
         <v>2</v>
       </c>
-      <c r="C31" s="243" t="s">
+      <c r="C31" s="267" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="152"/>
@@ -4741,8 +4735,8 @@
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="2:13" ht="19">
-      <c r="B32" s="238"/>
-      <c r="C32" s="244"/>
+      <c r="B32" s="271"/>
+      <c r="C32" s="268"/>
       <c r="D32" s="13" t="str">
         <f>MSR!D3</f>
         <v>PWR Board</v>
@@ -4773,8 +4767,8 @@
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="2:13" ht="19">
-      <c r="B33" s="238"/>
-      <c r="C33" s="244"/>
+      <c r="B33" s="271"/>
+      <c r="C33" s="268"/>
       <c r="D33" s="13" t="str">
         <f>MSR!D4</f>
         <v>M_TX Board</v>
@@ -4805,8 +4799,8 @@
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="2:13" ht="19">
-      <c r="B34" s="238"/>
-      <c r="C34" s="244"/>
+      <c r="B34" s="271"/>
+      <c r="C34" s="268"/>
       <c r="D34" s="13" t="str">
         <f>MSR!D5</f>
         <v>Hub Board</v>
@@ -4837,8 +4831,8 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="2:13" ht="19">
-      <c r="B35" s="238"/>
-      <c r="C35" s="244"/>
+      <c r="B35" s="271"/>
+      <c r="C35" s="268"/>
       <c r="D35" s="13" t="str">
         <f>MSR!D6</f>
         <v>TCIU Board</v>
@@ -4869,8 +4863,8 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="2:13" ht="19">
-      <c r="B36" s="238"/>
-      <c r="C36" s="244"/>
+      <c r="B36" s="271"/>
+      <c r="C36" s="268"/>
       <c r="D36" s="13" t="str">
         <f>MSR!D7</f>
         <v>PA_PBX Board</v>
@@ -4901,8 +4895,8 @@
       <c r="M36" s="3"/>
     </row>
     <row r="37" spans="2:13" ht="19">
-      <c r="B37" s="238"/>
-      <c r="C37" s="244"/>
+      <c r="B37" s="271"/>
+      <c r="C37" s="268"/>
       <c r="D37" s="13" t="str">
         <f>MSR!D8</f>
         <v>PA_ETX Board</v>
@@ -4933,8 +4927,8 @@
       <c r="M37" s="3"/>
     </row>
     <row r="38" spans="2:13" ht="19">
-      <c r="B38" s="238"/>
-      <c r="C38" s="244"/>
+      <c r="B38" s="271"/>
+      <c r="C38" s="268"/>
       <c r="D38" s="13" t="str">
         <f>MSR!D9</f>
         <v>NVR Board</v>
@@ -4966,8 +4960,8 @@
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="2:13" ht="38">
-      <c r="B39" s="238"/>
-      <c r="C39" s="244"/>
+      <c r="B39" s="271"/>
+      <c r="C39" s="268"/>
       <c r="D39" s="192" t="str">
         <f>MSR!D10</f>
         <v>CPU
@@ -4999,8 +4993,8 @@
       <c r="M39" s="3"/>
     </row>
     <row r="40" spans="2:13" ht="38">
-      <c r="B40" s="238"/>
-      <c r="C40" s="244"/>
+      <c r="B40" s="271"/>
+      <c r="C40" s="268"/>
       <c r="D40" s="192" t="str">
         <f>MSR!D11</f>
         <v>CPU BRACKET 
@@ -5032,8 +5026,8 @@
       <c r="M40" s="3"/>
     </row>
     <row r="41" spans="2:13" ht="57">
-      <c r="B41" s="238"/>
-      <c r="C41" s="244"/>
+      <c r="B41" s="271"/>
+      <c r="C41" s="268"/>
       <c r="D41" s="193" t="str">
         <f>MSR!D12</f>
         <v>DDR4
@@ -5067,8 +5061,8 @@
       </c>
     </row>
     <row r="42" spans="2:13" ht="19">
-      <c r="B42" s="238"/>
-      <c r="C42" s="244"/>
+      <c r="B42" s="271"/>
+      <c r="C42" s="268"/>
       <c r="D42" s="13" t="str">
         <f>MSR!D13</f>
         <v>SSD Board</v>
@@ -5099,8 +5093,8 @@
       <c r="M42" s="3"/>
     </row>
     <row r="43" spans="2:13" ht="19">
-      <c r="B43" s="238"/>
-      <c r="C43" s="244"/>
+      <c r="B43" s="271"/>
+      <c r="C43" s="268"/>
       <c r="D43" s="157" t="str">
         <f>MSR!D14</f>
         <v>MSR Back Plane</v>
@@ -5137,8 +5131,8 @@
       <c r="M43" s="3"/>
     </row>
     <row r="44" spans="2:13" ht="19">
-      <c r="B44" s="238"/>
-      <c r="C44" s="244"/>
+      <c r="B44" s="271"/>
+      <c r="C44" s="268"/>
       <c r="D44" s="157" t="str">
         <f>MSR!D15</f>
         <v>Frame</v>
@@ -5175,8 +5169,8 @@
       <c r="M44" s="3"/>
     </row>
     <row r="45" spans="2:13" ht="19">
-      <c r="B45" s="238"/>
-      <c r="C45" s="244"/>
+      <c r="B45" s="271"/>
+      <c r="C45" s="268"/>
       <c r="D45" s="13" t="str">
         <f>MSR!D16</f>
         <v>Name Plate, AL, T1</v>
@@ -5207,8 +5201,8 @@
       <c r="M45" s="3"/>
     </row>
     <row r="46" spans="2:13" ht="19">
-      <c r="B46" s="238"/>
-      <c r="C46" s="244"/>
+      <c r="B46" s="271"/>
+      <c r="C46" s="268"/>
       <c r="D46" s="191" t="str">
         <f>MSR!D17</f>
         <v>SSD(2T)</v>
@@ -5241,8 +5235,8 @@
       </c>
     </row>
     <row r="47" spans="2:13" ht="18">
-      <c r="B47" s="238"/>
-      <c r="C47" s="244"/>
+      <c r="B47" s="271"/>
+      <c r="C47" s="268"/>
       <c r="D47" s="200"/>
       <c r="E47" s="200"/>
       <c r="F47" s="200"/>
@@ -5255,8 +5249,8 @@
       <c r="M47" s="203"/>
     </row>
     <row r="48" spans="2:13" ht="19">
-      <c r="B48" s="239"/>
-      <c r="C48" s="245"/>
+      <c r="B48" s="272"/>
+      <c r="C48" s="269"/>
       <c r="D48" s="149" t="s">
         <v>286</v>
       </c>
@@ -5282,10 +5276,10 @@
       <c r="M48" s="15"/>
     </row>
     <row r="49" spans="2:13" ht="19">
-      <c r="B49" s="237">
+      <c r="B49" s="270">
         <v>3</v>
       </c>
-      <c r="C49" s="243" t="s">
+      <c r="C49" s="267" t="s">
         <v>4</v>
       </c>
       <c r="D49" s="152"/>
@@ -5302,8 +5296,8 @@
       <c r="M49" s="3"/>
     </row>
     <row r="50" spans="2:13" ht="19">
-      <c r="B50" s="238"/>
-      <c r="C50" s="244"/>
+      <c r="B50" s="271"/>
+      <c r="C50" s="268"/>
       <c r="D50" s="13" t="str">
         <f>CTM!D3</f>
         <v>Main Frame</v>
@@ -5334,8 +5328,8 @@
       <c r="M50" s="3"/>
     </row>
     <row r="51" spans="2:13" ht="19">
-      <c r="B51" s="238"/>
-      <c r="C51" s="244"/>
+      <c r="B51" s="271"/>
+      <c r="C51" s="268"/>
       <c r="D51" s="13" t="str">
         <f>CTM!D4</f>
         <v>Lower Cover</v>
@@ -5366,8 +5360,8 @@
       <c r="M51" s="3"/>
     </row>
     <row r="52" spans="2:13" ht="19">
-      <c r="B52" s="238"/>
-      <c r="C52" s="244"/>
+      <c r="B52" s="271"/>
+      <c r="C52" s="268"/>
       <c r="D52" s="13" t="str">
         <f>CTM!D5</f>
         <v>Rear Cover</v>
@@ -5398,8 +5392,8 @@
       <c r="M52" s="3"/>
     </row>
     <row r="53" spans="2:13" ht="19">
-      <c r="B53" s="238"/>
-      <c r="C53" s="244"/>
+      <c r="B53" s="271"/>
+      <c r="C53" s="268"/>
       <c r="D53" s="157" t="str">
         <f>CTM!D6</f>
         <v>10.4" LCD</v>
@@ -5438,8 +5432,8 @@
       </c>
     </row>
     <row r="54" spans="2:13" ht="19">
-      <c r="B54" s="238"/>
-      <c r="C54" s="244"/>
+      <c r="B54" s="271"/>
+      <c r="C54" s="268"/>
       <c r="D54" s="13" t="str">
         <f>CTM!D7</f>
         <v>Control Board Bracket</v>
@@ -5469,8 +5463,8 @@
       <c r="M54" s="3"/>
     </row>
     <row r="55" spans="2:13" ht="19">
-      <c r="B55" s="238"/>
-      <c r="C55" s="244"/>
+      <c r="B55" s="271"/>
+      <c r="C55" s="268"/>
       <c r="D55" s="13" t="str">
         <f>CTM!D8</f>
         <v>Control Board</v>
@@ -5500,8 +5494,8 @@
       <c r="M55" s="3"/>
     </row>
     <row r="56" spans="2:13" ht="19">
-      <c r="B56" s="238"/>
-      <c r="C56" s="244"/>
+      <c r="B56" s="271"/>
+      <c r="C56" s="268"/>
       <c r="D56" s="192" t="str">
         <f>CTM!D9</f>
         <v xml:space="preserve">CPU TCA3/i-E3845 </v>
@@ -5540,8 +5534,8 @@
       </c>
     </row>
     <row r="57" spans="2:13" ht="19">
-      <c r="B57" s="238"/>
-      <c r="C57" s="244"/>
+      <c r="B57" s="271"/>
+      <c r="C57" s="268"/>
       <c r="D57" s="192" t="str">
         <f>CTM!D10</f>
         <v xml:space="preserve">CPU BRACKET TCA3/CSP-B </v>
@@ -5580,8 +5574,8 @@
       </c>
     </row>
     <row r="58" spans="2:13" ht="57">
-      <c r="B58" s="238"/>
-      <c r="C58" s="244"/>
+      <c r="B58" s="271"/>
+      <c r="C58" s="268"/>
       <c r="D58" s="193" t="str">
         <f>CTM!D11</f>
         <v>DDR4
@@ -5615,8 +5609,8 @@
       </c>
     </row>
     <row r="59" spans="2:13" ht="19">
-      <c r="B59" s="238"/>
-      <c r="C59" s="244"/>
+      <c r="B59" s="271"/>
+      <c r="C59" s="268"/>
       <c r="D59" s="13" t="str">
         <f>CTM!D12</f>
         <v>Power Board</v>
@@ -5647,8 +5641,8 @@
       <c r="M59" s="3"/>
     </row>
     <row r="60" spans="2:13" ht="19">
-      <c r="B60" s="238"/>
-      <c r="C60" s="244"/>
+      <c r="B60" s="271"/>
+      <c r="C60" s="268"/>
       <c r="D60" s="157" t="str">
         <f>CTM!D13</f>
         <v>3P Connector</v>
@@ -5685,8 +5679,8 @@
       <c r="M60" s="16"/>
     </row>
     <row r="61" spans="2:13" ht="19">
-      <c r="B61" s="238"/>
-      <c r="C61" s="244"/>
+      <c r="B61" s="271"/>
+      <c r="C61" s="268"/>
       <c r="D61" s="157" t="str">
         <f>CTM!D14</f>
         <v>Locking</v>
@@ -5723,8 +5717,8 @@
       <c r="M61" s="16"/>
     </row>
     <row r="62" spans="2:13" ht="19">
-      <c r="B62" s="238"/>
-      <c r="C62" s="244"/>
+      <c r="B62" s="271"/>
+      <c r="C62" s="268"/>
       <c r="D62" s="157" t="str">
         <f>CTM!D15</f>
         <v>4P Connector</v>
@@ -5761,8 +5755,8 @@
       <c r="M62" s="16"/>
     </row>
     <row r="63" spans="2:13" ht="19">
-      <c r="B63" s="238"/>
-      <c r="C63" s="244"/>
+      <c r="B63" s="271"/>
+      <c r="C63" s="268"/>
       <c r="D63" s="157" t="str">
         <f>CTM!D16</f>
         <v>Pin</v>
@@ -5799,8 +5793,8 @@
       <c r="M63" s="16"/>
     </row>
     <row r="64" spans="2:13" ht="19">
-      <c r="B64" s="238"/>
-      <c r="C64" s="244"/>
+      <c r="B64" s="271"/>
+      <c r="C64" s="268"/>
       <c r="D64" s="157" t="str">
         <f>CTM!D17</f>
         <v>Cable Gland</v>
@@ -5837,8 +5831,8 @@
       <c r="M64" s="16"/>
     </row>
     <row r="65" spans="2:13" ht="19">
-      <c r="B65" s="238"/>
-      <c r="C65" s="244"/>
+      <c r="B65" s="271"/>
+      <c r="C65" s="268"/>
       <c r="D65" s="191" t="str">
         <f>CTM!D18</f>
         <v>USB Adapter</v>
@@ -5871,8 +5865,8 @@
       </c>
     </row>
     <row r="66" spans="2:13" ht="19">
-      <c r="B66" s="238"/>
-      <c r="C66" s="244"/>
+      <c r="B66" s="271"/>
+      <c r="C66" s="268"/>
       <c r="D66" s="13" t="str">
         <f>CTM!D19</f>
         <v>Name Plate</v>
@@ -5903,8 +5897,8 @@
       <c r="M66" s="3"/>
     </row>
     <row r="67" spans="2:13" ht="18">
-      <c r="B67" s="238"/>
-      <c r="C67" s="244"/>
+      <c r="B67" s="271"/>
+      <c r="C67" s="268"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
@@ -5917,8 +5911,8 @@
       <c r="M67" s="2"/>
     </row>
     <row r="68" spans="2:13" ht="19">
-      <c r="B68" s="239"/>
-      <c r="C68" s="245"/>
+      <c r="B68" s="272"/>
+      <c r="C68" s="269"/>
       <c r="D68" s="149" t="s">
         <v>286</v>
       </c>
@@ -5944,10 +5938,10 @@
       <c r="M68" s="15"/>
     </row>
     <row r="69" spans="2:13" ht="19">
-      <c r="B69" s="237">
+      <c r="B69" s="270">
         <v>4</v>
       </c>
-      <c r="C69" s="243" t="s">
+      <c r="C69" s="267" t="s">
         <v>6</v>
       </c>
       <c r="D69" s="152"/>
@@ -5964,8 +5958,8 @@
       <c r="M69" s="3"/>
     </row>
     <row r="70" spans="2:13" ht="19">
-      <c r="B70" s="238"/>
-      <c r="C70" s="244"/>
+      <c r="B70" s="271"/>
+      <c r="C70" s="268"/>
       <c r="D70" s="162" t="str">
         <f>PAB!D3</f>
         <v>Main Frame, STS304, T1.5</v>
@@ -6002,8 +5996,8 @@
       <c r="M70" s="3"/>
     </row>
     <row r="71" spans="2:13" ht="19">
-      <c r="B71" s="238"/>
-      <c r="C71" s="244"/>
+      <c r="B71" s="271"/>
+      <c r="C71" s="268"/>
       <c r="D71" s="162" t="str">
         <f>PAB!D4</f>
         <v>Left Cover, STS304, T1.5</v>
@@ -6034,8 +6028,8 @@
       <c r="M71" s="3"/>
     </row>
     <row r="72" spans="2:13" ht="19">
-      <c r="B72" s="238"/>
-      <c r="C72" s="244"/>
+      <c r="B72" s="271"/>
+      <c r="C72" s="268"/>
       <c r="D72" s="162" t="str">
         <f>PAB!D5</f>
         <v>Right Cover, STS304, T1.5</v>
@@ -6066,8 +6060,8 @@
       <c r="M72" s="3"/>
     </row>
     <row r="73" spans="2:13" ht="19">
-      <c r="B73" s="238"/>
-      <c r="C73" s="244"/>
+      <c r="B73" s="271"/>
+      <c r="C73" s="268"/>
       <c r="D73" s="162" t="str">
         <f>PAB!D6</f>
         <v>Rear Cover, STS304, T1.5</v>
@@ -6098,8 +6092,8 @@
       <c r="M73" s="3"/>
     </row>
     <row r="74" spans="2:13" ht="19">
-      <c r="B74" s="238"/>
-      <c r="C74" s="244"/>
+      <c r="B74" s="271"/>
+      <c r="C74" s="268"/>
       <c r="D74" s="199" t="str">
         <f>PAB!D7</f>
         <v>Power Board</v>
@@ -6134,8 +6128,8 @@
       </c>
     </row>
     <row r="75" spans="2:13" ht="19">
-      <c r="B75" s="238"/>
-      <c r="C75" s="244"/>
+      <c r="B75" s="271"/>
+      <c r="C75" s="268"/>
       <c r="D75" s="199" t="str">
         <f>PAB!D8</f>
         <v>Control Board</v>
@@ -6166,8 +6160,8 @@
       <c r="M75" s="3"/>
     </row>
     <row r="76" spans="2:13" ht="19">
-      <c r="B76" s="238"/>
-      <c r="C76" s="244"/>
+      <c r="B76" s="271"/>
+      <c r="C76" s="268"/>
       <c r="D76" s="162" t="str">
         <f>PAB!D9</f>
         <v>3P Connector, N&amp;G coding</v>
@@ -6204,8 +6198,8 @@
       <c r="M76" s="3"/>
     </row>
     <row r="77" spans="2:13" ht="19">
-      <c r="B77" s="238"/>
-      <c r="C77" s="244"/>
+      <c r="B77" s="271"/>
+      <c r="C77" s="268"/>
       <c r="D77" s="162" t="str">
         <f>PAB!D10</f>
         <v>4P Connector</v>
@@ -6242,8 +6236,8 @@
       <c r="M77" s="3"/>
     </row>
     <row r="78" spans="2:13" ht="19">
-      <c r="B78" s="238"/>
-      <c r="C78" s="244"/>
+      <c r="B78" s="271"/>
+      <c r="C78" s="268"/>
       <c r="D78" s="162" t="str">
         <f>PAB!D11</f>
         <v>Locking</v>
@@ -6280,8 +6274,8 @@
       <c r="M78" s="3"/>
     </row>
     <row r="79" spans="2:13" ht="19">
-      <c r="B79" s="238"/>
-      <c r="C79" s="244"/>
+      <c r="B79" s="271"/>
+      <c r="C79" s="268"/>
       <c r="D79" s="162" t="str">
         <f>PAB!D12</f>
         <v>4P Connector</v>
@@ -6318,8 +6312,8 @@
       <c r="M79" s="3"/>
     </row>
     <row r="80" spans="2:13" ht="19">
-      <c r="B80" s="238"/>
-      <c r="C80" s="244"/>
+      <c r="B80" s="271"/>
+      <c r="C80" s="268"/>
       <c r="D80" s="162" t="str">
         <f>PAB!D13</f>
         <v>Pin</v>
@@ -6356,8 +6350,8 @@
       <c r="M80" s="3"/>
     </row>
     <row r="81" spans="2:13" ht="19">
-      <c r="B81" s="238"/>
-      <c r="C81" s="244"/>
+      <c r="B81" s="271"/>
+      <c r="C81" s="268"/>
       <c r="D81" s="162" t="str">
         <f>PAB!D14</f>
         <v>8P Connector</v>
@@ -6394,8 +6388,8 @@
       <c r="M81" s="3"/>
     </row>
     <row r="82" spans="2:13" ht="19">
-      <c r="B82" s="238"/>
-      <c r="C82" s="244"/>
+      <c r="B82" s="271"/>
+      <c r="C82" s="268"/>
       <c r="D82" s="162" t="str">
         <f>PAB!D15</f>
         <v>Pin</v>
@@ -6432,8 +6426,8 @@
       <c r="M82" s="3"/>
     </row>
     <row r="83" spans="2:13" ht="19">
-      <c r="B83" s="238"/>
-      <c r="C83" s="244"/>
+      <c r="B83" s="271"/>
+      <c r="C83" s="268"/>
       <c r="D83" s="162" t="str">
         <f>PAB!D16</f>
         <v>Cable Gland</v>
@@ -6470,8 +6464,8 @@
       <c r="M83" s="3"/>
     </row>
     <row r="84" spans="2:13" ht="38">
-      <c r="B84" s="238"/>
-      <c r="C84" s="244"/>
+      <c r="B84" s="271"/>
+      <c r="C84" s="268"/>
       <c r="D84" s="199" t="str">
         <f>PAB!D17</f>
         <v>Relay</v>
@@ -6507,8 +6501,8 @@
       </c>
     </row>
     <row r="85" spans="2:13" ht="19">
-      <c r="B85" s="238"/>
-      <c r="C85" s="244"/>
+      <c r="B85" s="271"/>
+      <c r="C85" s="268"/>
       <c r="D85" s="199" t="str">
         <f>PAB!D18</f>
         <v>Name Plate, AL, T1</v>
@@ -6539,8 +6533,8 @@
       <c r="M85" s="3"/>
     </row>
     <row r="86" spans="2:13" ht="18">
-      <c r="B86" s="238"/>
-      <c r="C86" s="244"/>
+      <c r="B86" s="271"/>
+      <c r="C86" s="268"/>
       <c r="D86" s="146"/>
       <c r="E86" s="146"/>
       <c r="F86" s="146"/>
@@ -6553,8 +6547,8 @@
       <c r="M86" s="2"/>
     </row>
     <row r="87" spans="2:13" ht="19">
-      <c r="B87" s="239"/>
-      <c r="C87" s="245"/>
+      <c r="B87" s="272"/>
+      <c r="C87" s="269"/>
       <c r="D87" s="149" t="s">
         <v>286</v>
       </c>
@@ -6580,10 +6574,10 @@
       <c r="M87" s="2"/>
     </row>
     <row r="88" spans="2:13" ht="19">
-      <c r="B88" s="237">
+      <c r="B88" s="270">
         <v>5</v>
       </c>
-      <c r="C88" s="243" t="s">
+      <c r="C88" s="267" t="s">
         <v>8</v>
       </c>
       <c r="D88" s="152"/>
@@ -6602,8 +6596,8 @@
       <c r="M88" s="3"/>
     </row>
     <row r="89" spans="2:13" ht="19">
-      <c r="B89" s="238"/>
-      <c r="C89" s="244"/>
+      <c r="B89" s="271"/>
+      <c r="C89" s="268"/>
       <c r="D89" s="162" t="str">
         <f>EID!D3</f>
         <v>Main Frame, STS304, T1.2</v>
@@ -6640,8 +6634,8 @@
       <c r="M89" s="3"/>
     </row>
     <row r="90" spans="2:13" ht="19">
-      <c r="B90" s="238"/>
-      <c r="C90" s="244"/>
+      <c r="B90" s="271"/>
+      <c r="C90" s="268"/>
       <c r="D90" s="162" t="str">
         <f>EID!D4</f>
         <v>Mount Bracket</v>
@@ -6672,8 +6666,8 @@
       <c r="M90" s="3"/>
     </row>
     <row r="91" spans="2:13" ht="19">
-      <c r="B91" s="238"/>
-      <c r="C91" s="244"/>
+      <c r="B91" s="271"/>
+      <c r="C91" s="268"/>
       <c r="D91" s="162" t="str">
         <f>EID!D5</f>
         <v>LCD Bracket</v>
@@ -6704,8 +6698,8 @@
       <c r="M91" s="3"/>
     </row>
     <row r="92" spans="2:13" ht="19">
-      <c r="B92" s="238"/>
-      <c r="C92" s="244"/>
+      <c r="B92" s="271"/>
+      <c r="C92" s="268"/>
       <c r="D92" s="162" t="str">
         <f>EID!D6</f>
         <v>LCD Panel, 27”</v>
@@ -6744,8 +6738,8 @@
       </c>
     </row>
     <row r="93" spans="2:13" ht="19">
-      <c r="B93" s="238"/>
-      <c r="C93" s="244"/>
+      <c r="B93" s="271"/>
+      <c r="C93" s="268"/>
       <c r="D93" s="162" t="str">
         <f>EID!D7</f>
         <v>Connector Cover</v>
@@ -6776,8 +6770,8 @@
       <c r="M93" s="3"/>
     </row>
     <row r="94" spans="2:13" ht="19">
-      <c r="B94" s="238"/>
-      <c r="C94" s="244"/>
+      <c r="B94" s="271"/>
+      <c r="C94" s="268"/>
       <c r="D94" s="162" t="str">
         <f>EID!D8</f>
         <v>Rear Cover</v>
@@ -6808,8 +6802,8 @@
       <c r="M94" s="3"/>
     </row>
     <row r="95" spans="2:13" ht="19">
-      <c r="B95" s="238"/>
-      <c r="C95" s="244"/>
+      <c r="B95" s="271"/>
+      <c r="C95" s="268"/>
       <c r="D95" s="199" t="str">
         <f>EID!D9</f>
         <v>Control Board</v>
@@ -6840,8 +6834,8 @@
       <c r="M95" s="3"/>
     </row>
     <row r="96" spans="2:13" ht="19">
-      <c r="B96" s="238"/>
-      <c r="C96" s="244"/>
+      <c r="B96" s="271"/>
+      <c r="C96" s="268"/>
       <c r="D96" s="199" t="str">
         <f>EID!D10</f>
         <v>Power Board</v>
@@ -6876,8 +6870,8 @@
       </c>
     </row>
     <row r="97" spans="2:13" ht="19">
-      <c r="B97" s="238"/>
-      <c r="C97" s="244"/>
+      <c r="B97" s="271"/>
+      <c r="C97" s="268"/>
       <c r="D97" s="162" t="str">
         <f>EID!D11</f>
         <v>3P Connector Female</v>
@@ -6914,8 +6908,8 @@
       <c r="M97" s="3"/>
     </row>
     <row r="98" spans="2:13" ht="19">
-      <c r="B98" s="238"/>
-      <c r="C98" s="244"/>
+      <c r="B98" s="271"/>
+      <c r="C98" s="268"/>
       <c r="D98" s="162" t="str">
         <f>EID!D12</f>
         <v>Locking</v>
@@ -6952,8 +6946,8 @@
       <c r="M98" s="3"/>
     </row>
     <row r="99" spans="2:13" ht="19">
-      <c r="B99" s="238"/>
-      <c r="C99" s="244"/>
+      <c r="B99" s="271"/>
+      <c r="C99" s="268"/>
       <c r="D99" s="162" t="str">
         <f>EID!D13</f>
         <v>4P Connector Female</v>
@@ -6990,8 +6984,8 @@
       <c r="M99" s="3"/>
     </row>
     <row r="100" spans="2:13" ht="19">
-      <c r="B100" s="238"/>
-      <c r="C100" s="244"/>
+      <c r="B100" s="271"/>
+      <c r="C100" s="268"/>
       <c r="D100" s="162" t="str">
         <f>EID!D14</f>
         <v>Pin</v>
@@ -7028,8 +7022,8 @@
       <c r="M100" s="3"/>
     </row>
     <row r="101" spans="2:13" ht="19">
-      <c r="B101" s="238"/>
-      <c r="C101" s="244"/>
+      <c r="B101" s="271"/>
+      <c r="C101" s="268"/>
       <c r="D101" s="162" t="str">
         <f>EID!D15</f>
         <v>Cable Gland</v>
@@ -7066,8 +7060,8 @@
       <c r="M101" s="3"/>
     </row>
     <row r="102" spans="2:13" ht="19">
-      <c r="B102" s="238"/>
-      <c r="C102" s="244"/>
+      <c r="B102" s="271"/>
+      <c r="C102" s="268"/>
       <c r="D102" s="162" t="str">
         <f>EID!D16</f>
         <v>Illumination Sensor</v>
@@ -7104,8 +7098,8 @@
       <c r="M102" s="3"/>
     </row>
     <row r="103" spans="2:13" ht="19">
-      <c r="B103" s="238"/>
-      <c r="C103" s="244"/>
+      <c r="B103" s="271"/>
+      <c r="C103" s="268"/>
       <c r="D103" s="162" t="str">
         <f>EID!D17</f>
         <v>Inverter Board</v>
@@ -7142,8 +7136,8 @@
       </c>
     </row>
     <row r="104" spans="2:13" ht="19">
-      <c r="B104" s="238"/>
-      <c r="C104" s="244"/>
+      <c r="B104" s="271"/>
+      <c r="C104" s="268"/>
       <c r="D104" s="199" t="str">
         <f>EID!D18</f>
         <v>Name Plate, AL, T1</v>
@@ -7174,8 +7168,8 @@
       <c r="M104" s="3"/>
     </row>
     <row r="105" spans="2:13" ht="19">
-      <c r="B105" s="238"/>
-      <c r="C105" s="244"/>
+      <c r="B105" s="271"/>
+      <c r="C105" s="268"/>
       <c r="D105" s="162" t="str">
         <f>EID!D19</f>
         <v>강화유리</v>
@@ -7210,8 +7204,8 @@
       <c r="M105" s="2"/>
     </row>
     <row r="106" spans="2:13" ht="18">
-      <c r="B106" s="238"/>
-      <c r="C106" s="244"/>
+      <c r="B106" s="271"/>
+      <c r="C106" s="268"/>
       <c r="D106" s="146"/>
       <c r="E106" s="146"/>
       <c r="F106" s="146"/>
@@ -7224,8 +7218,8 @@
       <c r="M106" s="2"/>
     </row>
     <row r="107" spans="2:13" ht="19">
-      <c r="B107" s="239"/>
-      <c r="C107" s="245"/>
+      <c r="B107" s="272"/>
+      <c r="C107" s="269"/>
       <c r="D107" s="149" t="s">
         <v>286</v>
       </c>
@@ -7251,10 +7245,10 @@
       <c r="M107" s="2"/>
     </row>
     <row r="108" spans="2:13" ht="19">
-      <c r="B108" s="237">
+      <c r="B108" s="270">
         <v>6</v>
       </c>
-      <c r="C108" s="243" t="s">
+      <c r="C108" s="267" t="s">
         <v>10</v>
       </c>
       <c r="D108" s="152"/>
@@ -7271,8 +7265,8 @@
       <c r="M108" s="3"/>
     </row>
     <row r="109" spans="2:13" ht="19">
-      <c r="B109" s="238"/>
-      <c r="C109" s="244"/>
+      <c r="B109" s="271"/>
+      <c r="C109" s="268"/>
       <c r="D109" s="13" t="str">
         <f>PSR!D3</f>
         <v>Hub Board</v>
@@ -7303,8 +7297,8 @@
       <c r="M109" s="3"/>
     </row>
     <row r="110" spans="2:13" ht="19">
-      <c r="B110" s="238"/>
-      <c r="C110" s="244"/>
+      <c r="B110" s="271"/>
+      <c r="C110" s="268"/>
       <c r="D110" s="13" t="str">
         <f>PSR!D4</f>
         <v>PA_VOIP Board</v>
@@ -7335,8 +7329,8 @@
       <c r="M110" s="3"/>
     </row>
     <row r="111" spans="2:13" ht="19">
-      <c r="B111" s="238"/>
-      <c r="C111" s="244"/>
+      <c r="B111" s="271"/>
+      <c r="C111" s="268"/>
       <c r="D111" s="13" t="str">
         <f>PSR!D5</f>
         <v>PA_AMP1 Board</v>
@@ -7367,8 +7361,8 @@
       <c r="M111" s="3"/>
     </row>
     <row r="112" spans="2:13" ht="19">
-      <c r="B112" s="238"/>
-      <c r="C112" s="244"/>
+      <c r="B112" s="271"/>
+      <c r="C112" s="268"/>
       <c r="D112" s="13" t="str">
         <f>PSR!D6</f>
         <v>35V PWR Board</v>
@@ -7403,8 +7397,8 @@
       </c>
     </row>
     <row r="113" spans="2:13" ht="19">
-      <c r="B113" s="238"/>
-      <c r="C113" s="244"/>
+      <c r="B113" s="271"/>
+      <c r="C113" s="268"/>
       <c r="D113" s="13" t="str">
         <f>PSR!D7</f>
         <v>PA_AMP2 Board</v>
@@ -7435,8 +7429,8 @@
       <c r="M113" s="3"/>
     </row>
     <row r="114" spans="2:13" ht="19">
-      <c r="B114" s="238"/>
-      <c r="C114" s="244"/>
+      <c r="B114" s="271"/>
+      <c r="C114" s="268"/>
       <c r="D114" s="157" t="str">
         <f>PSR!D8</f>
         <v>Blank Panel</v>
@@ -7473,8 +7467,8 @@
       <c r="M114" s="3"/>
     </row>
     <row r="115" spans="2:13" ht="19">
-      <c r="B115" s="238"/>
-      <c r="C115" s="244"/>
+      <c r="B115" s="271"/>
+      <c r="C115" s="268"/>
       <c r="D115" s="13" t="str">
         <f>PSR!D9</f>
         <v>12V PWR Board</v>
@@ -7507,8 +7501,8 @@
       <c r="M115" s="3"/>
     </row>
     <row r="116" spans="2:13" ht="19">
-      <c r="B116" s="238"/>
-      <c r="C116" s="244"/>
+      <c r="B116" s="271"/>
+      <c r="C116" s="268"/>
       <c r="D116" s="157" t="str">
         <f>PSR!D10</f>
         <v>PSR Back Plane</v>
@@ -7547,8 +7541,8 @@
       </c>
     </row>
     <row r="117" spans="2:13" ht="19">
-      <c r="B117" s="238"/>
-      <c r="C117" s="244"/>
+      <c r="B117" s="271"/>
+      <c r="C117" s="268"/>
       <c r="D117" s="157" t="str">
         <f>PSR!D11</f>
         <v>Frame</v>
@@ -7585,8 +7579,8 @@
       <c r="M117" s="3"/>
     </row>
     <row r="118" spans="2:13" ht="19">
-      <c r="B118" s="238"/>
-      <c r="C118" s="244"/>
+      <c r="B118" s="271"/>
+      <c r="C118" s="268"/>
       <c r="D118" s="13" t="str">
         <f>PSR!D12</f>
         <v>Name Plate, AL, T1</v>
@@ -7617,8 +7611,8 @@
       <c r="M118" s="3"/>
     </row>
     <row r="119" spans="2:13" ht="18">
-      <c r="B119" s="238"/>
-      <c r="C119" s="244"/>
+      <c r="B119" s="271"/>
+      <c r="C119" s="268"/>
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
@@ -7631,8 +7625,8 @@
       <c r="M119" s="2"/>
     </row>
     <row r="120" spans="2:13" ht="19">
-      <c r="B120" s="239"/>
-      <c r="C120" s="245"/>
+      <c r="B120" s="272"/>
+      <c r="C120" s="269"/>
       <c r="D120" s="149" t="s">
         <v>286</v>
       </c>
@@ -7658,10 +7652,10 @@
       <c r="M120" s="2"/>
     </row>
     <row r="121" spans="2:13" ht="19">
-      <c r="B121" s="237">
+      <c r="B121" s="270">
         <v>7</v>
       </c>
-      <c r="C121" s="240" t="s">
+      <c r="C121" s="273" t="s">
         <v>14</v>
       </c>
       <c r="D121" s="152"/>
@@ -7678,8 +7672,8 @@
       <c r="M121" s="3"/>
     </row>
     <row r="122" spans="2:13" ht="19">
-      <c r="B122" s="238"/>
-      <c r="C122" s="241"/>
+      <c r="B122" s="271"/>
+      <c r="C122" s="274"/>
       <c r="D122" s="162" t="str">
         <f>ETND!D3</f>
         <v>Main Frame, SPCC</v>
@@ -7716,8 +7710,8 @@
       <c r="M122" s="4"/>
     </row>
     <row r="123" spans="2:13" ht="19">
-      <c r="B123" s="238"/>
-      <c r="C123" s="241"/>
+      <c r="B123" s="271"/>
+      <c r="C123" s="274"/>
       <c r="D123" s="162" t="str">
         <f>ETND!D4</f>
         <v>Rear Cover</v>
@@ -7748,8 +7742,8 @@
       <c r="M123" s="4"/>
     </row>
     <row r="124" spans="2:13" ht="19">
-      <c r="B124" s="238"/>
-      <c r="C124" s="241"/>
+      <c r="B124" s="271"/>
+      <c r="C124" s="274"/>
       <c r="D124" s="162" t="str">
         <f>ETND!D5</f>
         <v>LED Bracket</v>
@@ -7780,8 +7774,8 @@
       <c r="M124" s="4"/>
     </row>
     <row r="125" spans="2:13" ht="19">
-      <c r="B125" s="238"/>
-      <c r="C125" s="241"/>
+      <c r="B125" s="271"/>
+      <c r="C125" s="274"/>
       <c r="D125" s="199" t="str">
         <f>ETND!D6</f>
         <v>LED Module</v>
@@ -7816,8 +7810,8 @@
       </c>
     </row>
     <row r="126" spans="2:13" ht="19">
-      <c r="B126" s="238"/>
-      <c r="C126" s="241"/>
+      <c r="B126" s="271"/>
+      <c r="C126" s="274"/>
       <c r="D126" s="162" t="str">
         <f>ETND!D7</f>
         <v>Power Board Bracket</v>
@@ -7848,8 +7842,8 @@
       <c r="M126" s="7"/>
     </row>
     <row r="127" spans="2:13" ht="19">
-      <c r="B127" s="238"/>
-      <c r="C127" s="241"/>
+      <c r="B127" s="271"/>
+      <c r="C127" s="274"/>
       <c r="D127" s="199" t="str">
         <f>ETND!D8</f>
         <v>Power Board</v>
@@ -7884,8 +7878,8 @@
       </c>
     </row>
     <row r="128" spans="2:13" ht="19">
-      <c r="B128" s="238"/>
-      <c r="C128" s="241"/>
+      <c r="B128" s="271"/>
+      <c r="C128" s="274"/>
       <c r="D128" s="162" t="str">
         <f>ETND!D9</f>
         <v>Control Board Bracket</v>
@@ -7916,8 +7910,8 @@
       <c r="M128" s="7"/>
     </row>
     <row r="129" spans="2:13" ht="19">
-      <c r="B129" s="238"/>
-      <c r="C129" s="241"/>
+      <c r="B129" s="271"/>
+      <c r="C129" s="274"/>
       <c r="D129" s="162" t="str">
         <f>ETND!D10</f>
         <v>Control Board</v>
@@ -7954,8 +7948,8 @@
       <c r="M129" s="6"/>
     </row>
     <row r="130" spans="2:13" ht="19">
-      <c r="B130" s="238"/>
-      <c r="C130" s="241"/>
+      <c r="B130" s="271"/>
+      <c r="C130" s="274"/>
       <c r="D130" s="162" t="str">
         <f>ETND!D11</f>
         <v>3P Connector Female</v>
@@ -7992,8 +7986,8 @@
       <c r="M130" s="4"/>
     </row>
     <row r="131" spans="2:13" ht="19">
-      <c r="B131" s="238"/>
-      <c r="C131" s="241"/>
+      <c r="B131" s="271"/>
+      <c r="C131" s="274"/>
       <c r="D131" s="162" t="str">
         <f>ETND!D12</f>
         <v>Locking</v>
@@ -8030,8 +8024,8 @@
       <c r="M131" s="4"/>
     </row>
     <row r="132" spans="2:13" ht="19">
-      <c r="B132" s="238"/>
-      <c r="C132" s="241"/>
+      <c r="B132" s="271"/>
+      <c r="C132" s="274"/>
       <c r="D132" s="162" t="str">
         <f>ETND!D13</f>
         <v>4P Connector Female</v>
@@ -8068,8 +8062,8 @@
       <c r="M132" s="4"/>
     </row>
     <row r="133" spans="2:13" ht="19">
-      <c r="B133" s="238"/>
-      <c r="C133" s="241"/>
+      <c r="B133" s="271"/>
+      <c r="C133" s="274"/>
       <c r="D133" s="162" t="str">
         <f>ETND!D14</f>
         <v>Pin</v>
@@ -8106,8 +8100,8 @@
       <c r="M133" s="4"/>
     </row>
     <row r="134" spans="2:13" ht="19">
-      <c r="B134" s="238"/>
-      <c r="C134" s="241"/>
+      <c r="B134" s="271"/>
+      <c r="C134" s="274"/>
       <c r="D134" s="162" t="str">
         <f>ETND!D15</f>
         <v>Mount Bracket</v>
@@ -8138,8 +8132,8 @@
       <c r="M134" s="4"/>
     </row>
     <row r="135" spans="2:13" ht="19">
-      <c r="B135" s="238"/>
-      <c r="C135" s="241"/>
+      <c r="B135" s="271"/>
+      <c r="C135" s="274"/>
       <c r="D135" s="199" t="str">
         <f>ETND!D16</f>
         <v>Name Plate, AL, T1</v>
@@ -8170,8 +8164,8 @@
       <c r="M135" s="10"/>
     </row>
     <row r="136" spans="2:13" ht="18">
-      <c r="B136" s="238"/>
-      <c r="C136" s="241"/>
+      <c r="B136" s="271"/>
+      <c r="C136" s="274"/>
       <c r="D136" s="146"/>
       <c r="E136" s="146"/>
       <c r="F136" s="146"/>
@@ -8184,8 +8178,8 @@
       <c r="M136" s="6"/>
     </row>
     <row r="137" spans="2:13" ht="19">
-      <c r="B137" s="239"/>
-      <c r="C137" s="242"/>
+      <c r="B137" s="272"/>
+      <c r="C137" s="275"/>
       <c r="D137" s="149" t="s">
         <v>286</v>
       </c>
@@ -8211,10 +8205,10 @@
       <c r="M137" s="2"/>
     </row>
     <row r="138" spans="2:13" ht="19">
-      <c r="B138" s="237">
+      <c r="B138" s="270">
         <v>8</v>
       </c>
-      <c r="C138" s="243" t="s">
+      <c r="C138" s="267" t="s">
         <v>13</v>
       </c>
       <c r="D138" s="175"/>
@@ -8231,8 +8225,8 @@
       <c r="M138" s="3"/>
     </row>
     <row r="139" spans="2:13" ht="19">
-      <c r="B139" s="238"/>
-      <c r="C139" s="244"/>
+      <c r="B139" s="271"/>
+      <c r="C139" s="268"/>
       <c r="D139" s="162" t="str">
         <f>EDD!D3</f>
         <v>Main Frame, SPCC</v>
@@ -8269,8 +8263,8 @@
       <c r="M139" s="3"/>
     </row>
     <row r="140" spans="2:13" ht="19">
-      <c r="B140" s="238"/>
-      <c r="C140" s="244"/>
+      <c r="B140" s="271"/>
+      <c r="C140" s="268"/>
       <c r="D140" s="162" t="str">
         <f>EDD!D4</f>
         <v>Rear Cover</v>
@@ -8301,8 +8295,8 @@
       <c r="M140" s="3"/>
     </row>
     <row r="141" spans="2:13" ht="19">
-      <c r="B141" s="238"/>
-      <c r="C141" s="244"/>
+      <c r="B141" s="271"/>
+      <c r="C141" s="268"/>
       <c r="D141" s="162" t="str">
         <f>EDD!D5</f>
         <v>LED Bracket</v>
@@ -8333,8 +8327,8 @@
       <c r="M141" s="3"/>
     </row>
     <row r="142" spans="2:13" ht="19">
-      <c r="B142" s="238"/>
-      <c r="C142" s="244"/>
+      <c r="B142" s="271"/>
+      <c r="C142" s="268"/>
       <c r="D142" s="199" t="str">
         <f>EDD!D6</f>
         <v>LED Module</v>
@@ -8369,8 +8363,8 @@
       </c>
     </row>
     <row r="143" spans="2:13" ht="19">
-      <c r="B143" s="238"/>
-      <c r="C143" s="244"/>
+      <c r="B143" s="271"/>
+      <c r="C143" s="268"/>
       <c r="D143" s="162" t="str">
         <f>EDD!D7</f>
         <v>Power Board Bracket</v>
@@ -8401,8 +8395,8 @@
       <c r="M143" s="3"/>
     </row>
     <row r="144" spans="2:13" ht="19">
-      <c r="B144" s="238"/>
-      <c r="C144" s="244"/>
+      <c r="B144" s="271"/>
+      <c r="C144" s="268"/>
       <c r="D144" s="199" t="str">
         <f>EDD!D8</f>
         <v>Power Board</v>
@@ -8437,8 +8431,8 @@
       </c>
     </row>
     <row r="145" spans="2:13" ht="19">
-      <c r="B145" s="238"/>
-      <c r="C145" s="244"/>
+      <c r="B145" s="271"/>
+      <c r="C145" s="268"/>
       <c r="D145" s="162" t="str">
         <f>EDD!D9</f>
         <v>Control Board Bracket</v>
@@ -8469,8 +8463,8 @@
       <c r="M145" s="3"/>
     </row>
     <row r="146" spans="2:13" ht="19">
-      <c r="B146" s="238"/>
-      <c r="C146" s="244"/>
+      <c r="B146" s="271"/>
+      <c r="C146" s="268"/>
       <c r="D146" s="162" t="str">
         <f>EDD!D10</f>
         <v>Control Board</v>
@@ -8507,8 +8501,8 @@
       <c r="M146" s="3"/>
     </row>
     <row r="147" spans="2:13" ht="19">
-      <c r="B147" s="238"/>
-      <c r="C147" s="244"/>
+      <c r="B147" s="271"/>
+      <c r="C147" s="268"/>
       <c r="D147" s="162" t="str">
         <f>EDD!D11</f>
         <v>3P Connector Female</v>
@@ -8545,8 +8539,8 @@
       <c r="M147" s="3"/>
     </row>
     <row r="148" spans="2:13" ht="19">
-      <c r="B148" s="238"/>
-      <c r="C148" s="244"/>
+      <c r="B148" s="271"/>
+      <c r="C148" s="268"/>
       <c r="D148" s="162" t="str">
         <f>EDD!D12</f>
         <v>Locking</v>
@@ -8583,8 +8577,8 @@
       <c r="M148" s="3"/>
     </row>
     <row r="149" spans="2:13" ht="19">
-      <c r="B149" s="238"/>
-      <c r="C149" s="244"/>
+      <c r="B149" s="271"/>
+      <c r="C149" s="268"/>
       <c r="D149" s="162" t="str">
         <f>EDD!D13</f>
         <v>4P Connector Female</v>
@@ -8621,8 +8615,8 @@
       <c r="M149" s="3"/>
     </row>
     <row r="150" spans="2:13" ht="19">
-      <c r="B150" s="238"/>
-      <c r="C150" s="244"/>
+      <c r="B150" s="271"/>
+      <c r="C150" s="268"/>
       <c r="D150" s="162" t="str">
         <f>EDD!D14</f>
         <v>Pin</v>
@@ -8659,8 +8653,8 @@
       <c r="M150" s="3"/>
     </row>
     <row r="151" spans="2:13" ht="19">
-      <c r="B151" s="238"/>
-      <c r="C151" s="244"/>
+      <c r="B151" s="271"/>
+      <c r="C151" s="268"/>
       <c r="D151" s="162" t="str">
         <f>EDD!D15</f>
         <v>Mount Bracket</v>
@@ -8691,8 +8685,8 @@
       <c r="M151" s="3"/>
     </row>
     <row r="152" spans="2:13" ht="19">
-      <c r="B152" s="238"/>
-      <c r="C152" s="244"/>
+      <c r="B152" s="271"/>
+      <c r="C152" s="268"/>
       <c r="D152" s="199" t="str">
         <f>EDD!D16</f>
         <v>Name Plate, AL, T1</v>
@@ -8723,8 +8717,8 @@
       <c r="M152" s="3"/>
     </row>
     <row r="153" spans="2:13" ht="18">
-      <c r="B153" s="238"/>
-      <c r="C153" s="244"/>
+      <c r="B153" s="271"/>
+      <c r="C153" s="268"/>
       <c r="D153" s="146"/>
       <c r="E153" s="146"/>
       <c r="F153" s="146"/>
@@ -8737,8 +8731,8 @@
       <c r="M153" s="2"/>
     </row>
     <row r="154" spans="2:13" ht="19">
-      <c r="B154" s="238"/>
-      <c r="C154" s="245"/>
+      <c r="B154" s="271"/>
+      <c r="C154" s="269"/>
       <c r="D154" s="149" t="s">
         <v>286</v>
       </c>
@@ -8764,7 +8758,7 @@
       <c r="M154" s="2"/>
     </row>
     <row r="155" spans="2:13" ht="19" customHeight="1">
-      <c r="B155" s="246" t="s">
+      <c r="B155" s="276" t="s">
         <v>285</v>
       </c>
       <c r="C155" s="178">
@@ -8801,7 +8795,7 @@
       </c>
     </row>
     <row r="156" spans="2:13" ht="19">
-      <c r="B156" s="246"/>
+      <c r="B156" s="276"/>
       <c r="C156" s="178">
         <v>2</v>
       </c>
@@ -8836,7 +8830,7 @@
       </c>
     </row>
     <row r="157" spans="2:13" ht="20" thickBot="1">
-      <c r="B157" s="246"/>
+      <c r="B157" s="276"/>
       <c r="C157" s="178">
         <v>3</v>
       </c>
@@ -8871,7 +8865,7 @@
       </c>
     </row>
     <row r="158" spans="2:13" ht="21" thickBot="1">
-      <c r="B158" s="246"/>
+      <c r="B158" s="276"/>
       <c r="C158" s="178">
         <v>4</v>
       </c>
@@ -8901,7 +8895,7 @@
       </c>
     </row>
     <row r="159" spans="2:13" ht="33" thickBot="1">
-      <c r="B159" s="246"/>
+      <c r="B159" s="276"/>
       <c r="C159" s="178">
         <v>5</v>
       </c>
@@ -8932,7 +8926,7 @@
       </c>
     </row>
     <row r="160" spans="2:13" ht="33" thickBot="1">
-      <c r="B160" s="246"/>
+      <c r="B160" s="276"/>
       <c r="C160" s="178">
         <v>6</v>
       </c>
@@ -8960,7 +8954,7 @@
       </c>
     </row>
     <row r="161" spans="2:13" ht="33" thickBot="1">
-      <c r="B161" s="246"/>
+      <c r="B161" s="276"/>
       <c r="C161" s="178">
         <v>7</v>
       </c>
@@ -8997,7 +8991,7 @@
       </c>
     </row>
     <row r="162" spans="2:13" ht="32">
-      <c r="B162" s="247"/>
+      <c r="B162" s="277"/>
       <c r="C162" s="216">
         <v>8</v>
       </c>
@@ -9072,11 +9066,6 @@
   </sheetData>
   <autoFilter ref="B2:M162" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="17">
-    <mergeCell ref="C108:C120"/>
-    <mergeCell ref="B121:B137"/>
-    <mergeCell ref="C121:C137"/>
-    <mergeCell ref="C138:C154"/>
-    <mergeCell ref="B155:B162"/>
     <mergeCell ref="C3:C30"/>
     <mergeCell ref="B138:B154"/>
     <mergeCell ref="B3:B30"/>
@@ -9089,6 +9078,11 @@
     <mergeCell ref="C88:C107"/>
     <mergeCell ref="B88:B107"/>
     <mergeCell ref="B108:B120"/>
+    <mergeCell ref="C108:C120"/>
+    <mergeCell ref="B121:B137"/>
+    <mergeCell ref="C121:C137"/>
+    <mergeCell ref="C138:C154"/>
+    <mergeCell ref="B155:B162"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9118,7 +9112,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA30" sqref="AA30"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.3984375" defaultRowHeight="18"/>
@@ -9235,11 +9229,11 @@
       <c r="J3" s="33">
         <v>51</v>
       </c>
-      <c r="K3" s="268">
+      <c r="K3" s="238">
         <f>I3*J3</f>
         <v>51</v>
       </c>
-      <c r="L3" s="269">
+      <c r="L3" s="239">
         <v>440100</v>
       </c>
       <c r="M3" s="26">
@@ -9275,11 +9269,11 @@
       <c r="J4" s="33">
         <v>51</v>
       </c>
-      <c r="K4" s="268">
+      <c r="K4" s="238">
         <f t="shared" ref="K4:K30" si="0">I4*J4</f>
         <v>51</v>
       </c>
-      <c r="L4" s="269" t="s">
+      <c r="L4" s="239" t="s">
         <v>317</v>
       </c>
       <c r="M4" s="25" t="s">
@@ -9299,38 +9293,38 @@
       <c r="C5" s="22">
         <v>3</v>
       </c>
-      <c r="D5" s="273" t="s">
+      <c r="D5" s="242" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="274" t="s">
+      <c r="E5" s="243" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="275"/>
-      <c r="G5" s="275"/>
-      <c r="H5" s="275"/>
-      <c r="I5" s="267">
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="48">
         <v>1</v>
       </c>
-      <c r="J5" s="267">
+      <c r="J5" s="48">
         <v>51</v>
       </c>
-      <c r="K5" s="276">
+      <c r="K5" s="245">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="L5" s="277" t="s">
+      <c r="L5" s="246" t="s">
         <v>317</v>
       </c>
-      <c r="M5" s="277" t="s">
+      <c r="M5" s="246" t="s">
         <v>317</v>
       </c>
-      <c r="N5" s="272" t="s">
+      <c r="N5" s="241" t="s">
         <v>181</v>
       </c>
-      <c r="O5" s="272" t="s">
+      <c r="O5" s="241" t="s">
         <v>181</v>
       </c>
-      <c r="P5" s="270"/>
+      <c r="P5" s="240"/>
       <c r="Q5" s="54"/>
     </row>
     <row r="6" spans="2:17" ht="19">
@@ -9338,38 +9332,38 @@
       <c r="C6" s="22">
         <v>4</v>
       </c>
-      <c r="D6" s="273" t="s">
+      <c r="D6" s="242" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="274" t="s">
+      <c r="E6" s="243" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="275"/>
-      <c r="G6" s="275"/>
-      <c r="H6" s="275"/>
-      <c r="I6" s="267">
+      <c r="F6" s="244"/>
+      <c r="G6" s="244"/>
+      <c r="H6" s="244"/>
+      <c r="I6" s="48">
         <v>1</v>
       </c>
-      <c r="J6" s="267">
+      <c r="J6" s="48">
         <v>51</v>
       </c>
-      <c r="K6" s="276">
+      <c r="K6" s="245">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="L6" s="277" t="s">
+      <c r="L6" s="246" t="s">
         <v>317</v>
       </c>
-      <c r="M6" s="277" t="s">
+      <c r="M6" s="246" t="s">
         <v>317</v>
       </c>
-      <c r="N6" s="272" t="s">
+      <c r="N6" s="241" t="s">
         <v>181</v>
       </c>
-      <c r="O6" s="272" t="s">
+      <c r="O6" s="241" t="s">
         <v>181</v>
       </c>
-      <c r="P6" s="270"/>
+      <c r="P6" s="240"/>
       <c r="Q6" s="54"/>
     </row>
     <row r="7" spans="2:17" ht="19">
@@ -9377,38 +9371,38 @@
       <c r="C7" s="22">
         <v>5</v>
       </c>
-      <c r="D7" s="273" t="s">
+      <c r="D7" s="242" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="274" t="s">
+      <c r="E7" s="243" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="275"/>
-      <c r="G7" s="275"/>
-      <c r="H7" s="275"/>
-      <c r="I7" s="267">
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="48">
         <v>1</v>
       </c>
-      <c r="J7" s="267">
+      <c r="J7" s="48">
         <v>51</v>
       </c>
-      <c r="K7" s="276">
+      <c r="K7" s="245">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="L7" s="277" t="s">
+      <c r="L7" s="246" t="s">
         <v>317</v>
       </c>
-      <c r="M7" s="277" t="s">
+      <c r="M7" s="246" t="s">
         <v>317</v>
       </c>
-      <c r="N7" s="272" t="s">
+      <c r="N7" s="241" t="s">
         <v>181</v>
       </c>
-      <c r="O7" s="272" t="s">
+      <c r="O7" s="241" t="s">
         <v>181</v>
       </c>
-      <c r="P7" s="270"/>
+      <c r="P7" s="240"/>
       <c r="Q7" s="54"/>
     </row>
     <row r="8" spans="2:17" ht="19">
@@ -9416,239 +9410,239 @@
       <c r="C8" s="22">
         <v>6</v>
       </c>
-      <c r="D8" s="273" t="s">
+      <c r="D8" s="242" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="274" t="s">
+      <c r="E8" s="243" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="275"/>
-      <c r="G8" s="275"/>
-      <c r="H8" s="275"/>
-      <c r="I8" s="267">
+      <c r="F8" s="244"/>
+      <c r="G8" s="244"/>
+      <c r="H8" s="244"/>
+      <c r="I8" s="48">
         <v>1</v>
       </c>
-      <c r="J8" s="267">
+      <c r="J8" s="48">
         <v>51</v>
       </c>
-      <c r="K8" s="276">
+      <c r="K8" s="245">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="L8" s="277" t="s">
+      <c r="L8" s="246" t="s">
         <v>317</v>
       </c>
-      <c r="M8" s="277" t="s">
+      <c r="M8" s="246" t="s">
         <v>317</v>
       </c>
-      <c r="N8" s="272" t="s">
+      <c r="N8" s="241" t="s">
         <v>181</v>
       </c>
-      <c r="O8" s="272" t="s">
+      <c r="O8" s="241" t="s">
         <v>181</v>
       </c>
-      <c r="P8" s="267"/>
-      <c r="Q8" s="297"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="265"/>
     </row>
     <row r="9" spans="2:17" ht="19">
       <c r="B9" s="86"/>
       <c r="C9" s="22">
         <v>7</v>
       </c>
-      <c r="D9" s="278" t="s">
+      <c r="D9" s="247" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="271" t="s">
+      <c r="E9" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="271"/>
-      <c r="G9" s="271"/>
-      <c r="H9" s="271"/>
-      <c r="I9" s="271">
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40">
         <v>4</v>
       </c>
-      <c r="J9" s="271">
+      <c r="J9" s="40">
         <v>55</v>
       </c>
-      <c r="K9" s="279">
+      <c r="K9" s="248">
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-      <c r="L9" s="280">
+      <c r="L9" s="249">
         <v>28800</v>
       </c>
-      <c r="M9" s="280">
+      <c r="M9" s="249">
         <f t="shared" ref="M9:M11" si="1">I9*J9*L9</f>
         <v>6336000</v>
       </c>
-      <c r="N9" s="281" t="s">
+      <c r="N9" s="237" t="s">
         <v>262</v>
       </c>
-      <c r="O9" s="281" t="s">
+      <c r="O9" s="237" t="s">
         <v>270</v>
       </c>
-      <c r="P9" s="271"/>
-      <c r="Q9" s="271"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
     </row>
     <row r="10" spans="2:17" ht="19">
       <c r="B10" s="86"/>
       <c r="C10" s="22">
         <v>8</v>
       </c>
-      <c r="D10" s="278" t="s">
+      <c r="D10" s="247" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="271" t="s">
+      <c r="E10" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="F10" s="271"/>
-      <c r="G10" s="271"/>
-      <c r="H10" s="271"/>
-      <c r="I10" s="271">
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40">
         <v>4</v>
       </c>
-      <c r="J10" s="271">
+      <c r="J10" s="40">
         <v>55</v>
       </c>
-      <c r="K10" s="279">
+      <c r="K10" s="248">
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-      <c r="L10" s="280">
+      <c r="L10" s="249">
         <v>4650</v>
       </c>
-      <c r="M10" s="280">
+      <c r="M10" s="249">
         <f t="shared" si="1"/>
         <v>1023000</v>
       </c>
-      <c r="N10" s="281" t="s">
+      <c r="N10" s="237" t="s">
         <v>262</v>
       </c>
-      <c r="O10" s="281" t="s">
+      <c r="O10" s="237" t="s">
         <v>270</v>
       </c>
-      <c r="P10" s="271"/>
-      <c r="Q10" s="271"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="2:17" ht="19">
       <c r="B11" s="86"/>
       <c r="C11" s="22">
         <v>9</v>
       </c>
-      <c r="D11" s="278" t="s">
+      <c r="D11" s="247" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="271" t="s">
+      <c r="E11" s="40" t="s">
         <v>376</v>
       </c>
-      <c r="F11" s="271"/>
-      <c r="G11" s="271"/>
-      <c r="H11" s="271"/>
-      <c r="I11" s="271">
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40">
         <v>4</v>
       </c>
-      <c r="J11" s="271">
+      <c r="J11" s="40">
         <v>55</v>
       </c>
-      <c r="K11" s="279">
+      <c r="K11" s="248">
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-      <c r="L11" s="280">
+      <c r="L11" s="249">
         <v>39000</v>
       </c>
-      <c r="M11" s="280">
+      <c r="M11" s="249">
         <f t="shared" si="1"/>
         <v>8580000</v>
       </c>
-      <c r="N11" s="281" t="s">
+      <c r="N11" s="237" t="s">
         <v>262</v>
       </c>
-      <c r="O11" s="281" t="s">
+      <c r="O11" s="237" t="s">
         <v>270</v>
       </c>
-      <c r="P11" s="271"/>
-      <c r="Q11" s="271"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
     </row>
     <row r="12" spans="2:17" ht="19">
       <c r="B12" s="86"/>
       <c r="C12" s="22">
         <v>10</v>
       </c>
-      <c r="D12" s="273" t="s">
+      <c r="D12" s="242" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="274" t="s">
+      <c r="E12" s="243" t="s">
         <v>196</v>
       </c>
-      <c r="F12" s="275"/>
-      <c r="G12" s="275"/>
-      <c r="H12" s="275"/>
-      <c r="I12" s="267">
+      <c r="F12" s="244"/>
+      <c r="G12" s="244"/>
+      <c r="H12" s="244"/>
+      <c r="I12" s="48">
         <v>1</v>
       </c>
-      <c r="J12" s="267">
+      <c r="J12" s="48">
         <v>55</v>
       </c>
-      <c r="K12" s="276">
+      <c r="K12" s="245">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="L12" s="277">
+      <c r="L12" s="246">
         <v>2800</v>
       </c>
-      <c r="M12" s="282">
+      <c r="M12" s="250">
         <f t="shared" ref="M12:M27" si="2">I12*J12*L12</f>
         <v>154000</v>
       </c>
-      <c r="N12" s="275" t="s">
+      <c r="N12" s="244" t="s">
         <v>262</v>
       </c>
-      <c r="O12" s="275" t="s">
+      <c r="O12" s="244" t="s">
         <v>271</v>
       </c>
-      <c r="P12" s="267"/>
-      <c r="Q12" s="297"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="265"/>
     </row>
     <row r="13" spans="2:17" ht="38">
       <c r="B13" s="86"/>
       <c r="C13" s="22">
         <v>11</v>
       </c>
-      <c r="D13" s="273" t="s">
+      <c r="D13" s="242" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="275" t="s">
+      <c r="E13" s="244" t="s">
         <v>366</v>
       </c>
-      <c r="F13" s="275"/>
-      <c r="G13" s="275"/>
-      <c r="H13" s="275"/>
-      <c r="I13" s="267">
+      <c r="F13" s="244"/>
+      <c r="G13" s="244"/>
+      <c r="H13" s="244"/>
+      <c r="I13" s="48">
         <v>1</v>
       </c>
-      <c r="J13" s="267">
+      <c r="J13" s="48">
         <v>60</v>
       </c>
-      <c r="K13" s="276">
+      <c r="K13" s="245">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="L13" s="277">
+      <c r="L13" s="246">
         <v>23000</v>
       </c>
-      <c r="M13" s="282">
+      <c r="M13" s="250">
         <f t="shared" si="2"/>
         <v>1380000</v>
       </c>
-      <c r="N13" s="275" t="s">
+      <c r="N13" s="244" t="s">
         <v>261</v>
       </c>
-      <c r="O13" s="275" t="s">
+      <c r="O13" s="244" t="s">
         <v>272</v>
       </c>
-      <c r="P13" s="267"/>
-      <c r="Q13" s="271" t="s">
+      <c r="P13" s="48"/>
+      <c r="Q13" s="40" t="s">
         <v>333</v>
       </c>
     </row>
@@ -9657,399 +9651,399 @@
       <c r="C14" s="22">
         <v>12</v>
       </c>
-      <c r="D14" s="273" t="s">
+      <c r="D14" s="242" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="274" t="s">
+      <c r="E14" s="243" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="275"/>
-      <c r="G14" s="275"/>
-      <c r="H14" s="275"/>
-      <c r="I14" s="267">
+      <c r="F14" s="244"/>
+      <c r="G14" s="244"/>
+      <c r="H14" s="244"/>
+      <c r="I14" s="48">
         <v>1</v>
       </c>
-      <c r="J14" s="267">
+      <c r="J14" s="48">
         <v>51</v>
       </c>
-      <c r="K14" s="276">
+      <c r="K14" s="245">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="L14" s="277" t="s">
+      <c r="L14" s="246" t="s">
         <v>317</v>
       </c>
-      <c r="M14" s="277" t="s">
+      <c r="M14" s="246" t="s">
         <v>317</v>
       </c>
-      <c r="N14" s="275" t="s">
+      <c r="N14" s="244" t="s">
         <v>181</v>
       </c>
-      <c r="O14" s="275" t="s">
+      <c r="O14" s="244" t="s">
         <v>181</v>
       </c>
-      <c r="P14" s="267"/>
-      <c r="Q14" s="297"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="265"/>
     </row>
     <row r="15" spans="2:17" ht="19">
       <c r="B15" s="86"/>
       <c r="C15" s="22">
         <v>13</v>
       </c>
-      <c r="D15" s="273" t="s">
+      <c r="D15" s="242" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="274" t="s">
+      <c r="E15" s="243" t="s">
         <v>175</v>
       </c>
-      <c r="F15" s="275"/>
-      <c r="G15" s="275"/>
-      <c r="H15" s="275"/>
-      <c r="I15" s="267">
+      <c r="F15" s="244"/>
+      <c r="G15" s="244"/>
+      <c r="H15" s="244"/>
+      <c r="I15" s="48">
         <v>1</v>
       </c>
-      <c r="J15" s="267">
+      <c r="J15" s="48">
         <v>51</v>
       </c>
-      <c r="K15" s="276">
+      <c r="K15" s="245">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="L15" s="283">
+      <c r="L15" s="251">
         <v>425213</v>
       </c>
-      <c r="M15" s="282">
+      <c r="M15" s="250">
         <f t="shared" si="2"/>
         <v>21685863</v>
       </c>
-      <c r="N15" s="275" t="s">
+      <c r="N15" s="244" t="s">
         <v>363</v>
       </c>
-      <c r="O15" s="275" t="s">
+      <c r="O15" s="244" t="s">
         <v>363</v>
       </c>
-      <c r="P15" s="267"/>
-      <c r="Q15" s="297"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="265"/>
     </row>
     <row r="16" spans="2:17" ht="19">
       <c r="B16" s="86"/>
       <c r="C16" s="22">
         <v>14</v>
       </c>
-      <c r="D16" s="273" t="s">
+      <c r="D16" s="242" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="274" t="s">
+      <c r="E16" s="243" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="275"/>
-      <c r="G16" s="275"/>
-      <c r="H16" s="275"/>
-      <c r="I16" s="267">
+      <c r="F16" s="244"/>
+      <c r="G16" s="244"/>
+      <c r="H16" s="244"/>
+      <c r="I16" s="48">
         <v>1</v>
       </c>
-      <c r="J16" s="267">
+      <c r="J16" s="48">
         <v>51</v>
       </c>
-      <c r="K16" s="276">
+      <c r="K16" s="245">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="L16" s="283">
+      <c r="L16" s="251">
         <v>473650</v>
       </c>
-      <c r="M16" s="282">
+      <c r="M16" s="250">
         <f t="shared" si="2"/>
         <v>24156150</v>
       </c>
-      <c r="N16" s="275" t="s">
+      <c r="N16" s="244" t="s">
         <v>363</v>
       </c>
-      <c r="O16" s="275" t="s">
+      <c r="O16" s="244" t="s">
         <v>363</v>
       </c>
-      <c r="P16" s="267"/>
-      <c r="Q16" s="297"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="265"/>
     </row>
     <row r="17" spans="2:17" ht="19">
       <c r="B17" s="86"/>
       <c r="C17" s="22">
         <v>15</v>
       </c>
-      <c r="D17" s="273" t="s">
+      <c r="D17" s="242" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="274" t="s">
+      <c r="E17" s="243" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="275"/>
-      <c r="G17" s="275"/>
-      <c r="H17" s="275"/>
-      <c r="I17" s="267">
+      <c r="F17" s="244"/>
+      <c r="G17" s="244"/>
+      <c r="H17" s="244"/>
+      <c r="I17" s="48">
         <v>1</v>
       </c>
-      <c r="J17" s="267">
+      <c r="J17" s="48">
         <v>51</v>
       </c>
-      <c r="K17" s="276">
+      <c r="K17" s="245">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="L17" s="277">
+      <c r="L17" s="246">
         <v>89000</v>
       </c>
-      <c r="M17" s="282">
+      <c r="M17" s="250">
         <f t="shared" si="2"/>
         <v>4539000</v>
       </c>
-      <c r="N17" s="275" t="s">
+      <c r="N17" s="244" t="s">
         <v>182</v>
       </c>
-      <c r="O17" s="275" t="s">
+      <c r="O17" s="244" t="s">
         <v>182</v>
       </c>
-      <c r="P17" s="267"/>
-      <c r="Q17" s="297"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="265"/>
     </row>
     <row r="18" spans="2:17" ht="19">
       <c r="B18" s="86"/>
       <c r="C18" s="22">
         <v>16</v>
       </c>
-      <c r="D18" s="273" t="s">
+      <c r="D18" s="242" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="274" t="s">
+      <c r="E18" s="243" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="275"/>
-      <c r="G18" s="275"/>
-      <c r="H18" s="275"/>
-      <c r="I18" s="267">
+      <c r="F18" s="244"/>
+      <c r="G18" s="244"/>
+      <c r="H18" s="244"/>
+      <c r="I18" s="48">
         <v>1</v>
       </c>
-      <c r="J18" s="267">
+      <c r="J18" s="48">
         <v>55</v>
       </c>
-      <c r="K18" s="276">
+      <c r="K18" s="245">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="L18" s="283">
+      <c r="L18" s="251">
         <v>2800</v>
       </c>
-      <c r="M18" s="282">
+      <c r="M18" s="250">
         <f t="shared" si="2"/>
         <v>154000</v>
       </c>
-      <c r="N18" s="275" t="s">
+      <c r="N18" s="244" t="s">
         <v>262</v>
       </c>
-      <c r="O18" s="275" t="s">
+      <c r="O18" s="244" t="s">
         <v>263</v>
       </c>
-      <c r="P18" s="267"/>
-      <c r="Q18" s="297"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="265"/>
     </row>
     <row r="19" spans="2:17" ht="19">
       <c r="B19" s="86"/>
       <c r="C19" s="22">
         <v>17</v>
       </c>
-      <c r="D19" s="273" t="s">
+      <c r="D19" s="242" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="274" t="s">
+      <c r="E19" s="243" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="275"/>
-      <c r="G19" s="275"/>
-      <c r="H19" s="275"/>
-      <c r="I19" s="284">
+      <c r="F19" s="244"/>
+      <c r="G19" s="244"/>
+      <c r="H19" s="244"/>
+      <c r="I19" s="252">
         <v>1</v>
       </c>
-      <c r="J19" s="267">
+      <c r="J19" s="48">
         <v>55</v>
       </c>
-      <c r="K19" s="276">
+      <c r="K19" s="245">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="L19" s="277">
+      <c r="L19" s="246">
         <v>4250</v>
       </c>
-      <c r="M19" s="282">
+      <c r="M19" s="250">
         <f t="shared" si="2"/>
         <v>233750</v>
       </c>
-      <c r="N19" s="275" t="s">
+      <c r="N19" s="244" t="s">
         <v>262</v>
       </c>
-      <c r="O19" s="275" t="s">
+      <c r="O19" s="244" t="s">
         <v>263</v>
       </c>
-      <c r="P19" s="284"/>
-      <c r="Q19" s="297"/>
+      <c r="P19" s="252"/>
+      <c r="Q19" s="265"/>
     </row>
     <row r="20" spans="2:17" ht="19">
       <c r="B20" s="86"/>
       <c r="C20" s="22">
         <v>18</v>
       </c>
-      <c r="D20" s="273" t="s">
+      <c r="D20" s="242" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="274" t="s">
+      <c r="E20" s="243" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="275"/>
-      <c r="G20" s="275"/>
-      <c r="H20" s="275"/>
-      <c r="I20" s="284">
+      <c r="F20" s="244"/>
+      <c r="G20" s="244"/>
+      <c r="H20" s="244"/>
+      <c r="I20" s="252">
         <v>1</v>
       </c>
-      <c r="J20" s="267">
+      <c r="J20" s="48">
         <v>55</v>
       </c>
-      <c r="K20" s="276">
+      <c r="K20" s="245">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="L20" s="277">
+      <c r="L20" s="246">
         <v>350</v>
       </c>
-      <c r="M20" s="282">
+      <c r="M20" s="250">
         <f t="shared" si="2"/>
         <v>19250</v>
       </c>
-      <c r="N20" s="275" t="s">
+      <c r="N20" s="244" t="s">
         <v>262</v>
       </c>
-      <c r="O20" s="275" t="s">
+      <c r="O20" s="244" t="s">
         <v>263</v>
       </c>
-      <c r="P20" s="284"/>
-      <c r="Q20" s="297"/>
+      <c r="P20" s="252"/>
+      <c r="Q20" s="265"/>
     </row>
     <row r="21" spans="2:17" ht="19">
       <c r="B21" s="86"/>
       <c r="C21" s="22">
         <v>19</v>
       </c>
-      <c r="D21" s="273" t="s">
+      <c r="D21" s="242" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="274" t="s">
+      <c r="E21" s="243" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="275"/>
-      <c r="G21" s="275"/>
-      <c r="H21" s="275"/>
-      <c r="I21" s="284">
+      <c r="F21" s="244"/>
+      <c r="G21" s="244"/>
+      <c r="H21" s="244"/>
+      <c r="I21" s="252">
         <v>1</v>
       </c>
-      <c r="J21" s="267">
+      <c r="J21" s="48">
         <v>55</v>
       </c>
-      <c r="K21" s="276">
+      <c r="K21" s="245">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="L21" s="283">
+      <c r="L21" s="251">
         <v>32300</v>
       </c>
-      <c r="M21" s="282">
+      <c r="M21" s="250">
         <f t="shared" si="2"/>
         <v>1776500</v>
       </c>
-      <c r="N21" s="275" t="s">
+      <c r="N21" s="244" t="s">
         <v>262</v>
       </c>
-      <c r="O21" s="275" t="s">
+      <c r="O21" s="244" t="s">
         <v>264</v>
       </c>
-      <c r="P21" s="284"/>
-      <c r="Q21" s="297"/>
+      <c r="P21" s="252"/>
+      <c r="Q21" s="265"/>
     </row>
     <row r="22" spans="2:17" ht="19">
       <c r="B22" s="86"/>
       <c r="C22" s="22">
         <v>20</v>
       </c>
-      <c r="D22" s="273" t="s">
+      <c r="D22" s="242" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="274" t="s">
+      <c r="E22" s="243" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="275"/>
-      <c r="G22" s="275"/>
-      <c r="H22" s="275"/>
-      <c r="I22" s="284">
+      <c r="F22" s="244"/>
+      <c r="G22" s="244"/>
+      <c r="H22" s="244"/>
+      <c r="I22" s="252">
         <v>4</v>
       </c>
-      <c r="J22" s="267">
+      <c r="J22" s="48">
         <v>55</v>
       </c>
-      <c r="K22" s="276">
+      <c r="K22" s="245">
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-      <c r="L22" s="283">
+      <c r="L22" s="251">
         <v>1300</v>
       </c>
-      <c r="M22" s="282">
+      <c r="M22" s="250">
         <f t="shared" si="2"/>
         <v>286000</v>
       </c>
-      <c r="N22" s="275" t="s">
+      <c r="N22" s="244" t="s">
         <v>262</v>
       </c>
-      <c r="O22" s="275" t="s">
+      <c r="O22" s="244" t="s">
         <v>264</v>
       </c>
-      <c r="P22" s="284"/>
-      <c r="Q22" s="297"/>
+      <c r="P22" s="252"/>
+      <c r="Q22" s="265"/>
     </row>
     <row r="23" spans="2:17" ht="19">
       <c r="B23" s="86"/>
       <c r="C23" s="22">
         <v>21</v>
       </c>
-      <c r="D23" s="273" t="s">
+      <c r="D23" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="274" t="s">
+      <c r="E23" s="243" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="275"/>
-      <c r="G23" s="275"/>
-      <c r="H23" s="275"/>
-      <c r="I23" s="284">
+      <c r="F23" s="244"/>
+      <c r="G23" s="244"/>
+      <c r="H23" s="244"/>
+      <c r="I23" s="252">
         <v>1</v>
       </c>
-      <c r="J23" s="267">
+      <c r="J23" s="48">
         <v>50</v>
       </c>
-      <c r="K23" s="276">
+      <c r="K23" s="245">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="L23" s="277">
+      <c r="L23" s="246">
         <v>23900</v>
       </c>
-      <c r="M23" s="282">
+      <c r="M23" s="250">
         <f t="shared" si="2"/>
         <v>1195000</v>
       </c>
-      <c r="N23" s="275" t="s">
+      <c r="N23" s="244" t="s">
         <v>262</v>
       </c>
-      <c r="O23" s="275" t="s">
+      <c r="O23" s="244" t="s">
         <v>269</v>
       </c>
-      <c r="P23" s="284"/>
-      <c r="Q23" s="271" t="s">
+      <c r="P23" s="252"/>
+      <c r="Q23" s="40" t="s">
         <v>327</v>
       </c>
     </row>
@@ -10058,188 +10052,188 @@
       <c r="C24" s="22">
         <v>22</v>
       </c>
-      <c r="D24" s="273" t="s">
+      <c r="D24" s="242" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="274" t="s">
+      <c r="E24" s="243" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="275"/>
-      <c r="G24" s="275"/>
-      <c r="H24" s="275"/>
-      <c r="I24" s="284">
+      <c r="F24" s="244"/>
+      <c r="G24" s="244"/>
+      <c r="H24" s="244"/>
+      <c r="I24" s="252">
         <v>12</v>
       </c>
-      <c r="J24" s="267">
+      <c r="J24" s="48">
         <v>50</v>
       </c>
-      <c r="K24" s="276">
+      <c r="K24" s="245">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="L24" s="277">
+      <c r="L24" s="246">
         <v>1250</v>
       </c>
-      <c r="M24" s="282">
+      <c r="M24" s="250">
         <f t="shared" si="2"/>
         <v>750000</v>
       </c>
-      <c r="N24" s="275" t="s">
+      <c r="N24" s="244" t="s">
         <v>262</v>
       </c>
-      <c r="O24" s="275" t="s">
+      <c r="O24" s="244" t="s">
         <v>269</v>
       </c>
-      <c r="P24" s="284"/>
-      <c r="Q24" s="297"/>
+      <c r="P24" s="252"/>
+      <c r="Q24" s="265"/>
     </row>
     <row r="25" spans="2:17" ht="19">
       <c r="B25" s="86"/>
       <c r="C25" s="22">
         <v>23</v>
       </c>
-      <c r="D25" s="273" t="s">
+      <c r="D25" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="274" t="s">
+      <c r="E25" s="243" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="275"/>
-      <c r="G25" s="275"/>
-      <c r="H25" s="275"/>
-      <c r="I25" s="284">
+      <c r="F25" s="244"/>
+      <c r="G25" s="244"/>
+      <c r="H25" s="244"/>
+      <c r="I25" s="252">
         <v>1</v>
       </c>
-      <c r="J25" s="267">
+      <c r="J25" s="48">
         <v>55</v>
       </c>
-      <c r="K25" s="276">
+      <c r="K25" s="245">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="L25" s="285">
+      <c r="L25" s="253">
         <v>12000</v>
       </c>
-      <c r="M25" s="282">
+      <c r="M25" s="250">
         <f t="shared" si="2"/>
         <v>660000</v>
       </c>
-      <c r="N25" s="275" t="s">
+      <c r="N25" s="244" t="s">
         <v>262</v>
       </c>
-      <c r="O25" s="275" t="s">
+      <c r="O25" s="244" t="s">
         <v>269</v>
       </c>
-      <c r="P25" s="284"/>
-      <c r="Q25" s="297"/>
+      <c r="P25" s="252"/>
+      <c r="Q25" s="265"/>
     </row>
     <row r="26" spans="2:17" ht="19">
       <c r="B26" s="86"/>
       <c r="C26" s="22">
         <v>24</v>
       </c>
-      <c r="D26" s="286" t="s">
+      <c r="D26" s="254" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="287" t="s">
+      <c r="E26" s="255" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="288"/>
-      <c r="G26" s="288"/>
-      <c r="H26" s="288"/>
-      <c r="I26" s="289">
+      <c r="F26" s="256"/>
+      <c r="G26" s="256"/>
+      <c r="H26" s="256"/>
+      <c r="I26" s="257">
         <v>1</v>
       </c>
-      <c r="J26" s="272">
+      <c r="J26" s="241">
         <v>55</v>
       </c>
-      <c r="K26" s="276">
+      <c r="K26" s="245">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="L26" s="277" t="s">
+      <c r="L26" s="246" t="s">
         <v>317</v>
       </c>
-      <c r="M26" s="277" t="s">
+      <c r="M26" s="246" t="s">
         <v>317</v>
       </c>
-      <c r="N26" s="289" t="s">
+      <c r="N26" s="257" t="s">
         <v>317</v>
       </c>
-      <c r="O26" s="275" t="s">
+      <c r="O26" s="244" t="s">
         <v>317</v>
       </c>
-      <c r="P26" s="289"/>
-      <c r="Q26" s="298"/>
+      <c r="P26" s="257"/>
+      <c r="Q26" s="266"/>
     </row>
     <row r="27" spans="2:17" ht="19">
       <c r="B27" s="86"/>
       <c r="C27" s="22">
         <v>25</v>
       </c>
-      <c r="D27" s="281" t="s">
+      <c r="D27" s="237" t="s">
         <v>197</v>
       </c>
-      <c r="E27" s="271" t="s">
+      <c r="E27" s="40" t="s">
         <v>315</v>
       </c>
-      <c r="F27" s="271"/>
-      <c r="G27" s="271"/>
-      <c r="H27" s="271"/>
-      <c r="I27" s="271">
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40">
         <v>1</v>
       </c>
-      <c r="J27" s="267">
+      <c r="J27" s="48">
         <v>55</v>
       </c>
-      <c r="K27" s="276">
+      <c r="K27" s="245">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="L27" s="277">
+      <c r="L27" s="246">
         <v>4800</v>
       </c>
-      <c r="M27" s="282">
+      <c r="M27" s="250">
         <f t="shared" si="2"/>
         <v>264000</v>
       </c>
-      <c r="N27" s="271" t="s">
+      <c r="N27" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="O27" s="275" t="s">
+      <c r="O27" s="244" t="s">
         <v>317</v>
       </c>
-      <c r="P27" s="271"/>
-      <c r="Q27" s="297"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="265"/>
     </row>
     <row r="28" spans="2:17" ht="19">
       <c r="B28" s="86"/>
       <c r="C28" s="22">
         <v>26</v>
       </c>
-      <c r="D28" s="290" t="s">
+      <c r="D28" s="258" t="s">
         <v>92</v>
       </c>
       <c r="E28" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="F28" s="291"/>
-      <c r="G28" s="291"/>
-      <c r="H28" s="291"/>
-      <c r="I28" s="292">
+      <c r="F28" s="259"/>
+      <c r="G28" s="259"/>
+      <c r="H28" s="259"/>
+      <c r="I28" s="260">
         <v>1</v>
       </c>
       <c r="J28" s="35">
         <v>55</v>
       </c>
-      <c r="K28" s="293">
+      <c r="K28" s="261">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="L28" s="294"/>
-      <c r="M28" s="295"/>
-      <c r="N28" s="291"/>
-      <c r="O28" s="291"/>
+      <c r="L28" s="262"/>
+      <c r="M28" s="263"/>
+      <c r="N28" s="259"/>
+      <c r="O28" s="259"/>
       <c r="P28" s="74"/>
       <c r="Q28" s="54"/>
     </row>
@@ -10248,35 +10242,37 @@
       <c r="C29" s="22">
         <v>27</v>
       </c>
-      <c r="D29" s="290" t="s">
+      <c r="D29" s="258" t="s">
         <v>92</v>
       </c>
       <c r="E29" s="35" t="s">
         <v>383</v>
       </c>
-      <c r="F29" s="291"/>
-      <c r="G29" s="291"/>
-      <c r="H29" s="291"/>
+      <c r="F29" s="259"/>
+      <c r="G29" s="259"/>
+      <c r="H29" s="259"/>
       <c r="I29" s="74">
         <v>1</v>
       </c>
       <c r="J29" s="35">
         <v>55</v>
       </c>
-      <c r="K29" s="293">
+      <c r="K29" s="261">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="L29" s="296"/>
-      <c r="M29" s="295"/>
-      <c r="N29" s="291"/>
-      <c r="O29" s="291"/>
+      <c r="L29" s="264"/>
+      <c r="M29" s="263"/>
+      <c r="N29" s="259"/>
+      <c r="O29" s="259"/>
       <c r="P29" s="74"/>
       <c r="Q29" s="90"/>
     </row>
     <row r="30" spans="2:17">
       <c r="B30" s="86"/>
-      <c r="C30" s="28"/>
+      <c r="C30" s="28">
+        <v>28</v>
+      </c>
       <c r="D30" s="58"/>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
@@ -10296,7 +10292,7 @@
       <c r="Q30" s="54"/>
     </row>
     <row r="33" spans="2:17">
-      <c r="B33" s="250" t="s">
+      <c r="B33" s="280" t="s">
         <v>367</v>
       </c>
       <c r="C33" s="28">
@@ -10335,7 +10331,7 @@
       </c>
     </row>
     <row r="34" spans="2:17">
-      <c r="B34" s="251"/>
+      <c r="B34" s="281"/>
       <c r="C34" s="28">
         <v>2</v>
       </c>
@@ -10371,7 +10367,7 @@
       <c r="Q34" s="40"/>
     </row>
     <row r="35" spans="2:17">
-      <c r="B35" s="251"/>
+      <c r="B35" s="281"/>
       <c r="C35" s="28">
         <v>3</v>
       </c>
@@ -10407,7 +10403,7 @@
       <c r="Q35" s="40"/>
     </row>
     <row r="36" spans="2:17">
-      <c r="B36" s="251"/>
+      <c r="B36" s="281"/>
       <c r="C36" s="28">
         <v>4</v>
       </c>
@@ -10443,7 +10439,7 @@
       <c r="Q36" s="40"/>
     </row>
     <row r="37" spans="2:17" ht="19">
-      <c r="B37" s="251"/>
+      <c r="B37" s="281"/>
       <c r="C37" s="28">
         <v>5</v>
       </c>
@@ -10479,7 +10475,7 @@
       <c r="Q37" s="40"/>
     </row>
     <row r="38" spans="2:17" ht="19">
-      <c r="B38" s="251"/>
+      <c r="B38" s="281"/>
       <c r="C38" s="28">
         <v>9</v>
       </c>
@@ -10517,7 +10513,7 @@
       <c r="Q38" s="40"/>
     </row>
     <row r="39" spans="2:17" ht="19">
-      <c r="B39" s="251"/>
+      <c r="B39" s="281"/>
       <c r="C39" s="28">
         <v>10</v>
       </c>
@@ -10555,7 +10551,7 @@
       <c r="Q39" s="40"/>
     </row>
     <row r="40" spans="2:17" ht="19">
-      <c r="B40" s="251"/>
+      <c r="B40" s="281"/>
       <c r="C40" s="28">
         <v>11</v>
       </c>
@@ -10593,7 +10589,7 @@
       <c r="Q40" s="40"/>
     </row>
     <row r="41" spans="2:17" ht="19">
-      <c r="B41" s="251"/>
+      <c r="B41" s="281"/>
       <c r="C41" s="28">
         <v>12</v>
       </c>
@@ -10631,7 +10627,7 @@
       <c r="Q41" s="40"/>
     </row>
     <row r="42" spans="2:17" ht="19">
-      <c r="B42" s="251"/>
+      <c r="B42" s="281"/>
       <c r="C42" s="28">
         <v>13</v>
       </c>
@@ -10669,7 +10665,7 @@
       <c r="Q42" s="40"/>
     </row>
     <row r="43" spans="2:17" ht="19">
-      <c r="B43" s="251"/>
+      <c r="B43" s="281"/>
       <c r="C43" s="28">
         <v>14</v>
       </c>
@@ -10707,7 +10703,7 @@
       <c r="Q43" s="40"/>
     </row>
     <row r="44" spans="2:17" ht="19">
-      <c r="B44" s="251"/>
+      <c r="B44" s="281"/>
       <c r="C44" s="28">
         <v>15</v>
       </c>
@@ -10745,7 +10741,7 @@
       <c r="Q44" s="40"/>
     </row>
     <row r="45" spans="2:17" ht="19">
-      <c r="B45" s="251"/>
+      <c r="B45" s="281"/>
       <c r="C45" s="28">
         <v>16</v>
       </c>
@@ -10783,7 +10779,7 @@
       <c r="Q45" s="40"/>
     </row>
     <row r="46" spans="2:17" ht="19">
-      <c r="B46" s="251"/>
+      <c r="B46" s="281"/>
       <c r="C46" s="28">
         <v>17</v>
       </c>
@@ -10821,7 +10817,7 @@
       <c r="Q46" s="40"/>
     </row>
     <row r="47" spans="2:17" ht="19">
-      <c r="B47" s="251"/>
+      <c r="B47" s="281"/>
       <c r="C47" s="28">
         <v>18</v>
       </c>
@@ -10859,7 +10855,7 @@
       <c r="Q47" s="40"/>
     </row>
     <row r="48" spans="2:17" ht="19">
-      <c r="B48" s="251"/>
+      <c r="B48" s="281"/>
       <c r="C48" s="28">
         <v>19</v>
       </c>
@@ -10897,7 +10893,7 @@
       <c r="Q48" s="40"/>
     </row>
     <row r="49" spans="2:17" ht="19">
-      <c r="B49" s="251"/>
+      <c r="B49" s="281"/>
       <c r="C49" s="28">
         <v>20</v>
       </c>
@@ -10935,7 +10931,7 @@
       <c r="Q49" s="40"/>
     </row>
     <row r="50" spans="2:17" ht="19">
-      <c r="B50" s="251"/>
+      <c r="B50" s="281"/>
       <c r="C50" s="28">
         <v>21</v>
       </c>
@@ -11074,7 +11070,7 @@
       </c>
     </row>
     <row r="2" spans="2:17" ht="19">
-      <c r="B2" s="254">
+      <c r="B2" s="284">
         <v>2</v>
       </c>
       <c r="C2" s="45" t="s">
@@ -11098,7 +11094,7 @@
       <c r="Q2" s="54"/>
     </row>
     <row r="3" spans="2:17" ht="19">
-      <c r="B3" s="255"/>
+      <c r="B3" s="285"/>
       <c r="C3" s="45">
         <v>1</v>
       </c>
@@ -11138,7 +11134,7 @@
       <c r="Q3" s="54"/>
     </row>
     <row r="4" spans="2:17" ht="19">
-      <c r="B4" s="255"/>
+      <c r="B4" s="285"/>
       <c r="C4" s="45">
         <v>2</v>
       </c>
@@ -11178,7 +11174,7 @@
       <c r="Q4" s="54"/>
     </row>
     <row r="5" spans="2:17" ht="19">
-      <c r="B5" s="255"/>
+      <c r="B5" s="285"/>
       <c r="C5" s="45">
         <v>3</v>
       </c>
@@ -11218,7 +11214,7 @@
       <c r="Q5" s="54"/>
     </row>
     <row r="6" spans="2:17" ht="19">
-      <c r="B6" s="255"/>
+      <c r="B6" s="285"/>
       <c r="C6" s="45">
         <v>4</v>
       </c>
@@ -11258,7 +11254,7 @@
       <c r="Q6" s="54"/>
     </row>
     <row r="7" spans="2:17" ht="19">
-      <c r="B7" s="255"/>
+      <c r="B7" s="285"/>
       <c r="C7" s="45">
         <v>5</v>
       </c>
@@ -11298,7 +11294,7 @@
       <c r="Q7" s="54"/>
     </row>
     <row r="8" spans="2:17" ht="19">
-      <c r="B8" s="255"/>
+      <c r="B8" s="285"/>
       <c r="C8" s="45">
         <v>6</v>
       </c>
@@ -11338,7 +11334,7 @@
       <c r="Q8" s="54"/>
     </row>
     <row r="9" spans="2:17" ht="19">
-      <c r="B9" s="255"/>
+      <c r="B9" s="285"/>
       <c r="C9" s="45">
         <v>7</v>
       </c>
@@ -11378,7 +11374,7 @@
       <c r="Q9" s="54"/>
     </row>
     <row r="10" spans="2:17" ht="19">
-      <c r="B10" s="255"/>
+      <c r="B10" s="285"/>
       <c r="C10" s="45"/>
       <c r="D10" s="79" t="s">
         <v>324</v>
@@ -11416,7 +11412,7 @@
       <c r="Q10" s="54"/>
     </row>
     <row r="11" spans="2:17" ht="19">
-      <c r="B11" s="255"/>
+      <c r="B11" s="285"/>
       <c r="C11" s="45"/>
       <c r="D11" s="79" t="s">
         <v>325</v>
@@ -11454,7 +11450,7 @@
       <c r="Q11" s="54"/>
     </row>
     <row r="12" spans="2:17" ht="19">
-      <c r="B12" s="255"/>
+      <c r="B12" s="285"/>
       <c r="C12" s="45"/>
       <c r="D12" s="80" t="s">
         <v>326</v>
@@ -11492,7 +11488,7 @@
       <c r="Q12" s="61"/>
     </row>
     <row r="13" spans="2:17" ht="19">
-      <c r="B13" s="255"/>
+      <c r="B13" s="285"/>
       <c r="C13" s="45">
         <v>8</v>
       </c>
@@ -11532,7 +11528,7 @@
       <c r="Q13" s="54"/>
     </row>
     <row r="14" spans="2:17" ht="19">
-      <c r="B14" s="255"/>
+      <c r="B14" s="285"/>
       <c r="C14" s="45">
         <v>9</v>
       </c>
@@ -11572,7 +11568,7 @@
       <c r="Q14" s="54"/>
     </row>
     <row r="15" spans="2:17" ht="19">
-      <c r="B15" s="255"/>
+      <c r="B15" s="285"/>
       <c r="C15" s="45">
         <v>10</v>
       </c>
@@ -11612,7 +11608,7 @@
       <c r="Q15" s="54"/>
     </row>
     <row r="16" spans="2:17" ht="19">
-      <c r="B16" s="255"/>
+      <c r="B16" s="285"/>
       <c r="C16" s="45">
         <v>11</v>
       </c>
@@ -11651,7 +11647,7 @@
       <c r="Q16" s="57"/>
     </row>
     <row r="17" spans="2:17" ht="19">
-      <c r="B17" s="256"/>
+      <c r="B17" s="286"/>
       <c r="C17" s="45">
         <v>12</v>
       </c>
@@ -11691,7 +11687,7 @@
       <c r="Q17" s="61"/>
     </row>
     <row r="21" spans="2:17">
-      <c r="B21" s="252" t="s">
+      <c r="B21" s="282" t="s">
         <v>312</v>
       </c>
       <c r="C21" s="40">
@@ -11717,7 +11713,7 @@
       </c>
     </row>
     <row r="22" spans="2:17" ht="19">
-      <c r="B22" s="253"/>
+      <c r="B22" s="283"/>
       <c r="C22" s="41" t="s">
         <v>201</v>
       </c>
@@ -11755,7 +11751,7 @@
       <c r="Q22" s="40"/>
     </row>
     <row r="23" spans="2:17" ht="19">
-      <c r="B23" s="253"/>
+      <c r="B23" s="283"/>
       <c r="C23" s="42" t="s">
         <v>297</v>
       </c>
@@ -11793,7 +11789,7 @@
       <c r="Q23" s="40"/>
     </row>
     <row r="24" spans="2:17" ht="19">
-      <c r="B24" s="253"/>
+      <c r="B24" s="283"/>
       <c r="C24" s="42" t="s">
         <v>299</v>
       </c>
@@ -11831,7 +11827,7 @@
       <c r="Q24" s="40"/>
     </row>
     <row r="25" spans="2:17" ht="19">
-      <c r="B25" s="253"/>
+      <c r="B25" s="283"/>
       <c r="C25" s="42" t="s">
         <v>300</v>
       </c>
@@ -11869,7 +11865,7 @@
       <c r="Q25" s="40"/>
     </row>
     <row r="26" spans="2:17">
-      <c r="B26" s="253"/>
+      <c r="B26" s="283"/>
       <c r="C26" s="40">
         <v>2</v>
       </c>
@@ -11891,7 +11887,7 @@
       <c r="Q26" s="40"/>
     </row>
     <row r="27" spans="2:17" ht="19">
-      <c r="B27" s="253"/>
+      <c r="B27" s="283"/>
       <c r="C27" s="42" t="s">
         <v>291</v>
       </c>
@@ -11929,7 +11925,7 @@
       <c r="Q27" s="40"/>
     </row>
     <row r="28" spans="2:17" ht="19">
-      <c r="B28" s="253"/>
+      <c r="B28" s="283"/>
       <c r="C28" s="42" t="s">
         <v>301</v>
       </c>
@@ -11967,7 +11963,7 @@
       <c r="Q28" s="40"/>
     </row>
     <row r="29" spans="2:17" ht="19">
-      <c r="B29" s="253"/>
+      <c r="B29" s="283"/>
       <c r="C29" s="42" t="s">
         <v>302</v>
       </c>
@@ -12005,7 +12001,7 @@
       <c r="Q29" s="40"/>
     </row>
     <row r="30" spans="2:17" ht="19">
-      <c r="B30" s="253"/>
+      <c r="B30" s="283"/>
       <c r="C30" s="42" t="s">
         <v>303</v>
       </c>
@@ -12043,7 +12039,7 @@
       <c r="Q30" s="40"/>
     </row>
     <row r="31" spans="2:17">
-      <c r="B31" s="253"/>
+      <c r="B31" s="283"/>
       <c r="C31" s="40">
         <v>3</v>
       </c>
@@ -12065,7 +12061,7 @@
       <c r="Q31" s="40"/>
     </row>
     <row r="32" spans="2:17" ht="19">
-      <c r="B32" s="253"/>
+      <c r="B32" s="283"/>
       <c r="C32" s="42" t="s">
         <v>304</v>
       </c>
@@ -12103,7 +12099,7 @@
       <c r="Q32" s="40"/>
     </row>
     <row r="33" spans="2:17" ht="19">
-      <c r="B33" s="253"/>
+      <c r="B33" s="283"/>
       <c r="C33" s="42" t="s">
         <v>305</v>
       </c>
@@ -12141,7 +12137,7 @@
       <c r="Q33" s="40"/>
     </row>
     <row r="34" spans="2:17" ht="19">
-      <c r="B34" s="253"/>
+      <c r="B34" s="283"/>
       <c r="C34" s="42" t="s">
         <v>306</v>
       </c>
@@ -12179,7 +12175,7 @@
       <c r="Q34" s="40"/>
     </row>
     <row r="35" spans="2:17">
-      <c r="B35" s="253"/>
+      <c r="B35" s="283"/>
       <c r="C35" s="40">
         <v>4</v>
       </c>
@@ -12201,7 +12197,7 @@
       <c r="Q35" s="40"/>
     </row>
     <row r="36" spans="2:17" ht="19">
-      <c r="B36" s="253"/>
+      <c r="B36" s="283"/>
       <c r="C36" s="42" t="s">
         <v>202</v>
       </c>
@@ -12241,7 +12237,7 @@
       </c>
     </row>
     <row r="37" spans="2:17" ht="19">
-      <c r="B37" s="253"/>
+      <c r="B37" s="283"/>
       <c r="C37" s="42" t="s">
         <v>307</v>
       </c>
@@ -12281,7 +12277,7 @@
       </c>
     </row>
     <row r="38" spans="2:17" ht="19">
-      <c r="B38" s="253"/>
+      <c r="B38" s="283"/>
       <c r="C38" s="42" t="s">
         <v>308</v>
       </c>
@@ -12321,7 +12317,7 @@
       </c>
     </row>
     <row r="39" spans="2:17" ht="19">
-      <c r="B39" s="253"/>
+      <c r="B39" s="283"/>
       <c r="C39" s="42" t="s">
         <v>309</v>
       </c>
@@ -12359,7 +12355,7 @@
       <c r="Q39" s="40"/>
     </row>
     <row r="40" spans="2:17" ht="19">
-      <c r="B40" s="253"/>
+      <c r="B40" s="283"/>
       <c r="C40" s="42" t="s">
         <v>310</v>
       </c>
@@ -12397,7 +12393,7 @@
       <c r="Q40" s="40"/>
     </row>
     <row r="41" spans="2:17" ht="19">
-      <c r="B41" s="253"/>
+      <c r="B41" s="283"/>
       <c r="C41" s="42" t="s">
         <v>311</v>
       </c>
@@ -13247,7 +13243,7 @@
       <c r="Q19" s="54"/>
     </row>
     <row r="23" spans="2:17">
-      <c r="B23" s="257" t="s">
+      <c r="B23" s="287" t="s">
         <v>304</v>
       </c>
       <c r="C23" s="40">
@@ -13271,7 +13267,7 @@
       <c r="Q23" s="194"/>
     </row>
     <row r="24" spans="2:17">
-      <c r="B24" s="258"/>
+      <c r="B24" s="288"/>
       <c r="C24" s="40">
         <v>3</v>
       </c>
@@ -13309,7 +13305,7 @@
       <c r="Q24" s="194"/>
     </row>
     <row r="25" spans="2:17" ht="19">
-      <c r="B25" s="258"/>
+      <c r="B25" s="288"/>
       <c r="C25" s="40">
         <v>4</v>
       </c>
@@ -13347,7 +13343,7 @@
       </c>
     </row>
     <row r="26" spans="2:17">
-      <c r="B26" s="258"/>
+      <c r="B26" s="288"/>
       <c r="C26" s="40">
         <v>5</v>
       </c>
@@ -13385,7 +13381,7 @@
       <c r="Q26" s="194"/>
     </row>
     <row r="27" spans="2:17">
-      <c r="B27" s="258"/>
+      <c r="B27" s="288"/>
       <c r="C27" s="40">
         <v>6</v>
       </c>
@@ -13423,7 +13419,7 @@
       <c r="Q27" s="194"/>
     </row>
     <row r="28" spans="2:17">
-      <c r="B28" s="258"/>
+      <c r="B28" s="288"/>
       <c r="C28" s="40">
         <v>7</v>
       </c>
@@ -13461,7 +13457,7 @@
       <c r="Q28" s="194"/>
     </row>
     <row r="29" spans="2:17">
-      <c r="B29" s="258"/>
+      <c r="B29" s="288"/>
       <c r="C29" s="40">
         <v>8</v>
       </c>
@@ -13499,7 +13495,7 @@
       <c r="Q29" s="194"/>
     </row>
     <row r="30" spans="2:17">
-      <c r="B30" s="258"/>
+      <c r="B30" s="288"/>
       <c r="C30" s="40">
         <v>9</v>
       </c>
@@ -13537,7 +13533,7 @@
       <c r="Q30" s="194"/>
     </row>
     <row r="31" spans="2:17" ht="19">
-      <c r="B31" s="258"/>
+      <c r="B31" s="288"/>
       <c r="C31" s="40">
         <v>10</v>
       </c>
@@ -13577,7 +13573,7 @@
       </c>
     </row>
     <row r="32" spans="2:17" ht="19">
-      <c r="B32" s="258"/>
+      <c r="B32" s="288"/>
       <c r="C32" s="40">
         <v>11</v>
       </c>
@@ -13615,7 +13611,7 @@
       </c>
     </row>
     <row r="33" spans="2:17" ht="19">
-      <c r="B33" s="258"/>
+      <c r="B33" s="288"/>
       <c r="C33" s="40">
         <v>12</v>
       </c>
@@ -14351,7 +14347,7 @@
       <c r="I19" s="110"/>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="259" t="s">
+      <c r="B21" s="289" t="s">
         <v>202</v>
       </c>
       <c r="C21" s="28">
@@ -14389,7 +14385,7 @@
       </c>
     </row>
     <row r="22" spans="2:16">
-      <c r="B22" s="260"/>
+      <c r="B22" s="290"/>
       <c r="C22" s="28">
         <v>3</v>
       </c>
@@ -14425,7 +14421,7 @@
       </c>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="260"/>
+      <c r="B23" s="290"/>
       <c r="C23" s="28">
         <v>4</v>
       </c>
@@ -14461,7 +14457,7 @@
       </c>
     </row>
     <row r="24" spans="2:16">
-      <c r="B24" s="260"/>
+      <c r="B24" s="290"/>
       <c r="C24" s="28">
         <v>5</v>
       </c>
@@ -14497,7 +14493,7 @@
       </c>
     </row>
     <row r="25" spans="2:16">
-      <c r="B25" s="260"/>
+      <c r="B25" s="290"/>
       <c r="C25" s="28">
         <v>6</v>
       </c>
@@ -14533,7 +14529,7 @@
       </c>
     </row>
     <row r="26" spans="2:16">
-      <c r="B26" s="260"/>
+      <c r="B26" s="290"/>
       <c r="C26" s="28">
         <v>7</v>
       </c>
@@ -14569,7 +14565,7 @@
       </c>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="260"/>
+      <c r="B27" s="290"/>
       <c r="C27" s="28">
         <v>8</v>
       </c>
@@ -14605,7 +14601,7 @@
       </c>
     </row>
     <row r="28" spans="2:16">
-      <c r="B28" s="260"/>
+      <c r="B28" s="290"/>
       <c r="C28" s="28">
         <v>9</v>
       </c>
@@ -14641,7 +14637,7 @@
       </c>
     </row>
     <row r="29" spans="2:16">
-      <c r="B29" s="260"/>
+      <c r="B29" s="290"/>
       <c r="C29" s="28">
         <v>10</v>
       </c>
@@ -14677,7 +14673,7 @@
       </c>
     </row>
     <row r="30" spans="2:16">
-      <c r="B30" s="260"/>
+      <c r="B30" s="290"/>
       <c r="C30" s="28">
         <v>11</v>
       </c>
@@ -14713,7 +14709,7 @@
       </c>
     </row>
     <row r="31" spans="2:16">
-      <c r="B31" s="260"/>
+      <c r="B31" s="290"/>
       <c r="C31" s="28">
         <v>12</v>
       </c>
@@ -15493,7 +15489,7 @@
       </c>
     </row>
     <row r="26" spans="2:16">
-      <c r="B26" s="261" t="s">
+      <c r="B26" s="291" t="s">
         <v>214</v>
       </c>
       <c r="C26" s="40">
@@ -15526,7 +15522,7 @@
       </c>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="262"/>
+      <c r="B27" s="292"/>
       <c r="C27" s="40">
         <v>2</v>
       </c>
@@ -15562,7 +15558,7 @@
       </c>
     </row>
     <row r="28" spans="2:16">
-      <c r="B28" s="262"/>
+      <c r="B28" s="292"/>
       <c r="C28" s="40">
         <v>3</v>
       </c>
@@ -15596,7 +15592,7 @@
       <c r="P28" s="40"/>
     </row>
     <row r="29" spans="2:16">
-      <c r="B29" s="262"/>
+      <c r="B29" s="292"/>
       <c r="C29" s="40">
         <v>4</v>
       </c>
@@ -15630,7 +15626,7 @@
       <c r="P29" s="40"/>
     </row>
     <row r="30" spans="2:16">
-      <c r="B30" s="262"/>
+      <c r="B30" s="292"/>
       <c r="C30" s="40">
         <v>5</v>
       </c>
@@ -15664,7 +15660,7 @@
       <c r="P30" s="40"/>
     </row>
     <row r="31" spans="2:16">
-      <c r="B31" s="262"/>
+      <c r="B31" s="292"/>
       <c r="C31" s="40">
         <v>6</v>
       </c>
@@ -15698,7 +15694,7 @@
       <c r="P31" s="40"/>
     </row>
     <row r="32" spans="2:16">
-      <c r="B32" s="262"/>
+      <c r="B32" s="292"/>
       <c r="C32" s="40">
         <v>7</v>
       </c>
@@ -15732,7 +15728,7 @@
       <c r="P32" s="40"/>
     </row>
     <row r="33" spans="2:16">
-      <c r="B33" s="262"/>
+      <c r="B33" s="292"/>
       <c r="C33" s="40">
         <v>8</v>
       </c>
@@ -15766,7 +15762,7 @@
       <c r="P33" s="40"/>
     </row>
     <row r="34" spans="2:16">
-      <c r="B34" s="262"/>
+      <c r="B34" s="292"/>
       <c r="C34" s="40">
         <v>9</v>
       </c>
@@ -15800,7 +15796,7 @@
       <c r="P34" s="40"/>
     </row>
     <row r="35" spans="2:16">
-      <c r="B35" s="262"/>
+      <c r="B35" s="292"/>
       <c r="C35" s="40">
         <v>10</v>
       </c>
@@ -15834,7 +15830,7 @@
       <c r="P35" s="40"/>
     </row>
     <row r="36" spans="2:16">
-      <c r="B36" s="262"/>
+      <c r="B36" s="292"/>
       <c r="C36" s="40">
         <v>11</v>
       </c>
@@ -15868,7 +15864,7 @@
       <c r="P36" s="40"/>
     </row>
     <row r="37" spans="2:16">
-      <c r="B37" s="263"/>
+      <c r="B37" s="293"/>
       <c r="C37" s="40">
         <v>12</v>
       </c>
@@ -16394,7 +16390,7 @@
       </c>
     </row>
     <row r="18" spans="2:16">
-      <c r="B18" s="264" t="s">
+      <c r="B18" s="294" t="s">
         <v>339</v>
       </c>
       <c r="C18" s="28">
@@ -16419,7 +16415,7 @@
       </c>
     </row>
     <row r="19" spans="2:16">
-      <c r="B19" s="265"/>
+      <c r="B19" s="295"/>
       <c r="C19" s="111" t="s">
         <v>201</v>
       </c>
@@ -16453,7 +16449,7 @@
       <c r="P19" s="40"/>
     </row>
     <row r="20" spans="2:16">
-      <c r="B20" s="265"/>
+      <c r="B20" s="295"/>
       <c r="C20" s="111" t="s">
         <v>296</v>
       </c>
@@ -16487,7 +16483,7 @@
       <c r="P20" s="40"/>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="265"/>
+      <c r="B21" s="295"/>
       <c r="C21" s="111" t="s">
         <v>298</v>
       </c>
@@ -16521,7 +16517,7 @@
       <c r="P21" s="40"/>
     </row>
     <row r="22" spans="2:16">
-      <c r="B22" s="265"/>
+      <c r="B22" s="295"/>
       <c r="C22" s="28">
         <v>2</v>
       </c>
@@ -16542,7 +16538,7 @@
       <c r="P22" s="40"/>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="265"/>
+      <c r="B23" s="295"/>
       <c r="C23" s="111" t="s">
         <v>291</v>
       </c>
@@ -16576,7 +16572,7 @@
       <c r="P23" s="40"/>
     </row>
     <row r="24" spans="2:16">
-      <c r="B24" s="265"/>
+      <c r="B24" s="295"/>
       <c r="C24" s="111" t="s">
         <v>301</v>
       </c>
@@ -16610,7 +16606,7 @@
       <c r="P24" s="40"/>
     </row>
     <row r="25" spans="2:16">
-      <c r="B25" s="265"/>
+      <c r="B25" s="295"/>
       <c r="C25" s="111" t="s">
         <v>302</v>
       </c>
@@ -16644,7 +16640,7 @@
       <c r="P25" s="40"/>
     </row>
     <row r="26" spans="2:16">
-      <c r="B26" s="265"/>
+      <c r="B26" s="295"/>
       <c r="C26" s="28">
         <v>4</v>
       </c>
@@ -16665,7 +16661,7 @@
       <c r="P26" s="40"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="265"/>
+      <c r="B27" s="295"/>
       <c r="C27" s="111" t="s">
         <v>202</v>
       </c>
@@ -16699,7 +16695,7 @@
       <c r="P27" s="40"/>
     </row>
     <row r="28" spans="2:16">
-      <c r="B28" s="265"/>
+      <c r="B28" s="295"/>
       <c r="C28" s="111" t="s">
         <v>307</v>
       </c>
@@ -16733,7 +16729,7 @@
       <c r="P28" s="40"/>
     </row>
     <row r="29" spans="2:16">
-      <c r="B29" s="265"/>
+      <c r="B29" s="295"/>
       <c r="C29" s="111" t="s">
         <v>308</v>
       </c>
@@ -16767,7 +16763,7 @@
       <c r="P29" s="40"/>
     </row>
     <row r="30" spans="2:16">
-      <c r="B30" s="265"/>
+      <c r="B30" s="295"/>
       <c r="C30" s="111" t="s">
         <v>309</v>
       </c>
@@ -16801,7 +16797,7 @@
       <c r="P30" s="40"/>
     </row>
     <row r="31" spans="2:16">
-      <c r="B31" s="265"/>
+      <c r="B31" s="295"/>
       <c r="C31" s="111" t="s">
         <v>310</v>
       </c>
@@ -16835,7 +16831,7 @@
       <c r="P31" s="40"/>
     </row>
     <row r="32" spans="2:16">
-      <c r="B32" s="265"/>
+      <c r="B32" s="295"/>
       <c r="C32" s="28">
         <v>5</v>
       </c>
@@ -16856,7 +16852,7 @@
       <c r="P32" s="40"/>
     </row>
     <row r="33" spans="2:16" ht="15" customHeight="1">
-      <c r="B33" s="265"/>
+      <c r="B33" s="295"/>
       <c r="C33" s="111" t="s">
         <v>214</v>
       </c>
@@ -16890,7 +16886,7 @@
       <c r="P33" s="40"/>
     </row>
     <row r="34" spans="2:16">
-      <c r="B34" s="265"/>
+      <c r="B34" s="295"/>
       <c r="C34" s="111" t="s">
         <v>340</v>
       </c>
@@ -16924,7 +16920,7 @@
       <c r="P34" s="40"/>
     </row>
     <row r="35" spans="2:16">
-      <c r="B35" s="266"/>
+      <c r="B35" s="296"/>
       <c r="C35" s="111" t="s">
         <v>341</v>
       </c>
@@ -17556,7 +17552,7 @@
       </c>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="264" t="s">
+      <c r="B21" s="294" t="s">
         <v>215</v>
       </c>
       <c r="C21" s="28">
@@ -17592,7 +17588,7 @@
       <c r="P21" s="40"/>
     </row>
     <row r="22" spans="2:16">
-      <c r="B22" s="265"/>
+      <c r="B22" s="295"/>
       <c r="C22" s="28">
         <v>2</v>
       </c>
@@ -17626,7 +17622,7 @@
       <c r="P22" s="40"/>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="265"/>
+      <c r="B23" s="295"/>
       <c r="C23" s="28">
         <v>3</v>
       </c>
@@ -17660,7 +17656,7 @@
       <c r="P23" s="40"/>
     </row>
     <row r="24" spans="2:16">
-      <c r="B24" s="265"/>
+      <c r="B24" s="295"/>
       <c r="C24" s="28">
         <v>4</v>
       </c>
@@ -17694,7 +17690,7 @@
       <c r="P24" s="40"/>
     </row>
     <row r="25" spans="2:16">
-      <c r="B25" s="265"/>
+      <c r="B25" s="295"/>
       <c r="C25" s="28">
         <v>5</v>
       </c>
@@ -17728,7 +17724,7 @@
       <c r="P25" s="40"/>
     </row>
     <row r="26" spans="2:16">
-      <c r="B26" s="265"/>
+      <c r="B26" s="295"/>
       <c r="C26" s="28">
         <v>6</v>
       </c>
@@ -17762,7 +17758,7 @@
       <c r="P26" s="40"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="265"/>
+      <c r="B27" s="295"/>
       <c r="C27" s="28">
         <v>7</v>
       </c>
@@ -17796,7 +17792,7 @@
       <c r="P27" s="40"/>
     </row>
     <row r="28" spans="2:16">
-      <c r="B28" s="265"/>
+      <c r="B28" s="295"/>
       <c r="C28" s="28">
         <v>8</v>
       </c>
@@ -17830,7 +17826,7 @@
       <c r="P28" s="40"/>
     </row>
     <row r="29" spans="2:16">
-      <c r="B29" s="265"/>
+      <c r="B29" s="295"/>
       <c r="C29" s="28">
         <v>9</v>
       </c>
@@ -17864,7 +17860,7 @@
       <c r="P29" s="40"/>
     </row>
     <row r="30" spans="2:16">
-      <c r="B30" s="266"/>
+      <c r="B30" s="296"/>
       <c r="C30" s="28">
         <v>10</v>
       </c>
@@ -18499,7 +18495,7 @@
       <c r="L18" s="130"/>
     </row>
     <row r="22" spans="2:16">
-      <c r="B22" s="264" t="s">
+      <c r="B22" s="294" t="s">
         <v>350</v>
       </c>
       <c r="C22" s="28">
@@ -18535,7 +18531,7 @@
       <c r="P22" s="40"/>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="265"/>
+      <c r="B23" s="295"/>
       <c r="C23" s="28">
         <v>2</v>
       </c>
@@ -18569,7 +18565,7 @@
       <c r="P23" s="40"/>
     </row>
     <row r="24" spans="2:16">
-      <c r="B24" s="265"/>
+      <c r="B24" s="295"/>
       <c r="C24" s="28">
         <v>3</v>
       </c>
@@ -18603,7 +18599,7 @@
       <c r="P24" s="40"/>
     </row>
     <row r="25" spans="2:16">
-      <c r="B25" s="265"/>
+      <c r="B25" s="295"/>
       <c r="C25" s="28">
         <v>4</v>
       </c>
@@ -18637,7 +18633,7 @@
       <c r="P25" s="40"/>
     </row>
     <row r="26" spans="2:16">
-      <c r="B26" s="265"/>
+      <c r="B26" s="295"/>
       <c r="C26" s="28">
         <v>5</v>
       </c>
@@ -18671,7 +18667,7 @@
       <c r="P26" s="40"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="265"/>
+      <c r="B27" s="295"/>
       <c r="C27" s="28">
         <v>6</v>
       </c>
@@ -18705,7 +18701,7 @@
       <c r="P27" s="40"/>
     </row>
     <row r="28" spans="2:16">
-      <c r="B28" s="265"/>
+      <c r="B28" s="295"/>
       <c r="C28" s="28">
         <v>7</v>
       </c>
@@ -18739,7 +18735,7 @@
       <c r="P28" s="40"/>
     </row>
     <row r="29" spans="2:16">
-      <c r="B29" s="265"/>
+      <c r="B29" s="295"/>
       <c r="C29" s="28">
         <v>8</v>
       </c>
@@ -18773,7 +18769,7 @@
       <c r="P29" s="40"/>
     </row>
     <row r="30" spans="2:16">
-      <c r="B30" s="265"/>
+      <c r="B30" s="295"/>
       <c r="C30" s="28">
         <v>9</v>
       </c>
@@ -18807,7 +18803,7 @@
       <c r="P30" s="40"/>
     </row>
     <row r="31" spans="2:16">
-      <c r="B31" s="266"/>
+      <c r="B31" s="296"/>
       <c r="C31" s="28">
         <v>10</v>
       </c>
